--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="418">
   <si>
     <t>Test Case - ID</t>
   </si>
@@ -100,6 +100,9 @@
     <t>1. Отображение страницы "Авторизация".</t>
   </si>
   <si>
+    <t>Avto</t>
+  </si>
+  <si>
     <t>2. В поле "Логин" ввести: login2</t>
   </si>
   <si>
@@ -403,6 +406,9 @@
     <t>Работоспособность кнопки сортировки новостей мобильного приложения (Позитивный)</t>
   </si>
   <si>
+    <t>No avto</t>
+  </si>
+  <si>
     <t>2. Нажать на кнопку сортировки новостей.</t>
   </si>
   <si>
@@ -412,6 +418,9 @@
     <t>TК - 26</t>
   </si>
   <si>
+    <t>Работоспособность кнопки  фильтрации  новостей мобильного приложения (Позитивный)</t>
+  </si>
+  <si>
     <t>1. Нажать на кнопку фильтрации новостей</t>
   </si>
   <si>
@@ -544,10 +553,10 @@
     <t>Работоспособность фильтрации выпадающего списка по первым буквам поля "Категории"(Позитивный)</t>
   </si>
   <si>
-    <t>3. Ввести в поле "Категория" первые буквы любой категории,которая есть в системе</t>
-  </si>
-  <si>
-    <t>3. В поле "Категория" отобразились подходящие под написанные буквы категории</t>
+    <t>3. Ввести в поле "Категория" первые буквы любой категории,которая есть в системе(ввести "день")</t>
+  </si>
+  <si>
+    <t>3. В поле "Категория" отобразились подходящие под написанные буквы категории(день рождения)</t>
   </si>
   <si>
     <t>TК - 36</t>
@@ -1537,7 +1546,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1652,9 +1661,6 @@
     <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -1664,7 +1670,6 @@
     <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -2176,7 +2181,9 @@
       <c r="G19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="41"/>
+      <c r="H19" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25"/>
@@ -2185,10 +2192,10 @@
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20" s="25"/>
     </row>
@@ -2199,10 +2206,10 @@
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21" s="25"/>
     </row>
@@ -2213,19 +2220,19 @@
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22" s="30"/>
     </row>
     <row r="23">
       <c r="A23" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="41" t="s">
@@ -2240,7 +2247,9 @@
       <c r="G23" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="44"/>
+      <c r="H23" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="25"/>
@@ -2248,11 +2257,11 @@
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
-      <c r="F24" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="45" t="s">
+      <c r="F24" s="44" t="s">
         <v>38</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="H24" s="25"/>
     </row>
@@ -2262,11 +2271,11 @@
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
-      <c r="F25" s="45" t="s">
-        <v>31</v>
+      <c r="F25" s="44" t="s">
+        <v>32</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25" s="25"/>
     </row>
@@ -2276,20 +2285,20 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="46" t="s">
-        <v>39</v>
+      <c r="F26" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>40</v>
       </c>
       <c r="H26" s="30"/>
     </row>
     <row r="27">
       <c r="A27" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="41" t="s">
@@ -2301,10 +2310,12 @@
       <c r="F27" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="48"/>
+      <c r="H27" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="25"/>
@@ -2312,13 +2323,13 @@
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="48"/>
+      <c r="F28" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="25"/>
     </row>
     <row r="29">
       <c r="A29" s="25"/>
@@ -2326,13 +2337,13 @@
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="49" t="s">
+      <c r="F29" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="G29" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="25"/>
     </row>
     <row r="30">
       <c r="A30" s="30"/>
@@ -2340,35 +2351,37 @@
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="48"/>
+      <c r="F30" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="30"/>
     </row>
     <row r="31">
-      <c r="A31" s="50" t="s">
-        <v>44</v>
+      <c r="A31" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="51"/>
+        <v>46</v>
+      </c>
+      <c r="C31" s="49"/>
       <c r="D31" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="32">
       <c r="B32" s="25"/>
@@ -2376,10 +2389,10 @@
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H32" s="25"/>
     </row>
@@ -2389,10 +2402,10 @@
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
       <c r="F33" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H33" s="25"/>
     </row>
@@ -2402,34 +2415,36 @@
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="G34" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="H34" s="30"/>
     </row>
     <row r="35">
       <c r="A35" s="40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="51"/>
+        <v>51</v>
+      </c>
+      <c r="C35" s="49"/>
       <c r="D35" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="25"/>
@@ -2438,10 +2453,10 @@
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
       <c r="F36" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H36" s="25"/>
     </row>
@@ -2452,10 +2467,10 @@
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37" s="25"/>
     </row>
@@ -2466,34 +2481,36 @@
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
       <c r="F38" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="47" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="H38" s="30"/>
     </row>
     <row r="39">
       <c r="A39" s="40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="51"/>
+        <v>55</v>
+      </c>
+      <c r="C39" s="49"/>
       <c r="D39" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="25"/>
@@ -2502,10 +2519,10 @@
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
       <c r="F40" s="27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H40" s="25"/>
     </row>
@@ -2516,10 +2533,10 @@
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
       <c r="F41" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41" s="25"/>
     </row>
@@ -2530,34 +2547,36 @@
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
       <c r="F42" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="47" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="H42" s="30"/>
     </row>
     <row r="43">
       <c r="A43" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="51"/>
+        <v>58</v>
+      </c>
+      <c r="C43" s="49"/>
       <c r="D43" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="25"/>
@@ -2566,10 +2585,10 @@
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
       <c r="F44" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H44" s="25"/>
     </row>
@@ -2580,10 +2599,10 @@
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
       <c r="F45" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H45" s="25"/>
     </row>
@@ -2594,34 +2613,36 @@
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
       <c r="F46" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="47" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>40</v>
       </c>
       <c r="H46" s="30"/>
     </row>
     <row r="47">
       <c r="A47" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="51"/>
+        <v>61</v>
+      </c>
+      <c r="C47" s="49"/>
       <c r="D47" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="25"/>
@@ -2630,10 +2651,10 @@
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
       <c r="F48" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H48" s="25"/>
     </row>
@@ -2644,10 +2665,10 @@
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
       <c r="F49" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H49" s="25"/>
     </row>
@@ -2658,34 +2679,36 @@
       <c r="D50" s="30"/>
       <c r="E50" s="30"/>
       <c r="F50" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" s="47" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="G50" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="H50" s="30"/>
     </row>
     <row r="51">
       <c r="A51" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="51"/>
+        <v>64</v>
+      </c>
+      <c r="C51" s="49"/>
       <c r="D51" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="52" t="s">
+      <c r="E51" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="25"/>
@@ -2694,10 +2717,10 @@
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
       <c r="F52" s="27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H52" s="25"/>
     </row>
@@ -2708,10 +2731,10 @@
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
       <c r="F53" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H53" s="25"/>
     </row>
@@ -2722,19 +2745,19 @@
       <c r="D54" s="30"/>
       <c r="E54" s="30"/>
       <c r="F54" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" s="47" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="G54" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="H54" s="30"/>
     </row>
     <row r="55">
       <c r="A55" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="41" t="s">
@@ -2758,10 +2781,10 @@
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
       <c r="F56" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H56" s="25"/>
     </row>
@@ -2772,10 +2795,10 @@
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
       <c r="F57" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H57" s="25"/>
     </row>
@@ -2786,21 +2809,21 @@
       <c r="D58" s="30"/>
       <c r="E58" s="30"/>
       <c r="F58" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G58" s="42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H58" s="30"/>
     </row>
     <row r="59">
-      <c r="A59" s="53" t="s">
-        <v>67</v>
+      <c r="A59" s="51" t="s">
+        <v>68</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="51"/>
+        <v>69</v>
+      </c>
+      <c r="C59" s="49"/>
       <c r="D59" s="41" t="s">
         <v>10</v>
       </c>
@@ -2811,7 +2834,7 @@
         <v>27</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" s="41"/>
     </row>
@@ -2822,10 +2845,10 @@
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
       <c r="F60" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H60" s="25"/>
     </row>
@@ -2836,10 +2859,10 @@
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
       <c r="F61" s="27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H61" s="25"/>
     </row>
@@ -2850,32 +2873,32 @@
       <c r="D62" s="30"/>
       <c r="E62" s="30"/>
       <c r="F62" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H62" s="30"/>
     </row>
     <row r="63">
       <c r="A63" s="40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="51"/>
+        <v>73</v>
+      </c>
+      <c r="C63" s="49"/>
       <c r="D63" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="52" t="s">
+      <c r="E63" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F63" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" s="41"/>
     </row>
@@ -2886,10 +2909,10 @@
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
       <c r="F64" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H64" s="25"/>
     </row>
@@ -2900,10 +2923,10 @@
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
       <c r="F65" s="27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65" s="25"/>
     </row>
@@ -2914,32 +2937,32 @@
       <c r="D66" s="30"/>
       <c r="E66" s="30"/>
       <c r="F66" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G66" s="47" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="G66" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="H66" s="30"/>
     </row>
     <row r="67">
       <c r="A67" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="51"/>
+        <v>76</v>
+      </c>
+      <c r="C67" s="49"/>
       <c r="D67" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="52" t="s">
+      <c r="E67" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F67" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" s="41"/>
     </row>
@@ -2950,10 +2973,10 @@
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
       <c r="F68" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G68" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H68" s="25"/>
     </row>
@@ -2964,10 +2987,10 @@
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
       <c r="F69" s="27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H69" s="25"/>
     </row>
@@ -2978,32 +3001,32 @@
       <c r="D70" s="30"/>
       <c r="E70" s="30"/>
       <c r="F70" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G70" s="47" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="G70" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="H70" s="30"/>
     </row>
     <row r="71">
       <c r="A71" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="51"/>
+        <v>80</v>
+      </c>
+      <c r="C71" s="49"/>
       <c r="D71" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="52" t="s">
+      <c r="E71" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F71" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" s="41"/>
     </row>
@@ -3014,10 +3037,10 @@
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H72" s="25"/>
     </row>
@@ -3028,10 +3051,10 @@
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
       <c r="F73" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G73" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H73" s="25"/>
     </row>
@@ -3042,32 +3065,32 @@
       <c r="D74" s="30"/>
       <c r="E74" s="30"/>
       <c r="F74" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G74" s="47" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="G74" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="H74" s="30"/>
     </row>
     <row r="75">
       <c r="A75" s="40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" s="51"/>
+        <v>84</v>
+      </c>
+      <c r="C75" s="49"/>
       <c r="D75" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="52" t="s">
+      <c r="E75" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F75" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G75" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" s="41"/>
     </row>
@@ -3078,10 +3101,10 @@
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
       <c r="F76" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H76" s="25"/>
     </row>
@@ -3092,10 +3115,10 @@
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
       <c r="F77" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H77" s="25"/>
     </row>
@@ -3106,32 +3129,32 @@
       <c r="D78" s="30"/>
       <c r="E78" s="30"/>
       <c r="F78" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G78" s="47" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="G78" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="H78" s="30"/>
     </row>
     <row r="79">
       <c r="A79" s="40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" s="51"/>
+        <v>87</v>
+      </c>
+      <c r="C79" s="49"/>
       <c r="D79" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="52" t="s">
+      <c r="E79" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F79" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" s="41"/>
     </row>
@@ -3142,10 +3165,10 @@
       <c r="D80" s="25"/>
       <c r="E80" s="25"/>
       <c r="F80" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80" s="25"/>
     </row>
@@ -3156,10 +3179,10 @@
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
       <c r="F81" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H81" s="25"/>
     </row>
@@ -3170,32 +3193,32 @@
       <c r="D82" s="30"/>
       <c r="E82" s="30"/>
       <c r="F82" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G82" s="47" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="G82" s="46" t="s">
+        <v>40</v>
       </c>
       <c r="H82" s="30"/>
     </row>
     <row r="83">
       <c r="A83" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83" s="51"/>
+        <v>90</v>
+      </c>
+      <c r="C83" s="49"/>
       <c r="D83" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="52" t="s">
+      <c r="E83" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F83" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" s="41"/>
     </row>
@@ -3206,10 +3229,10 @@
       <c r="D84" s="25"/>
       <c r="E84" s="25"/>
       <c r="F84" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G84" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84" s="25"/>
     </row>
@@ -3220,10 +3243,10 @@
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
       <c r="F85" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H85" s="25"/>
     </row>
@@ -3234,32 +3257,32 @@
       <c r="D86" s="30"/>
       <c r="E86" s="30"/>
       <c r="F86" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G86" s="47" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="G86" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="H86" s="30"/>
     </row>
     <row r="87">
       <c r="A87" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C87" s="51"/>
+        <v>93</v>
+      </c>
+      <c r="C87" s="49"/>
       <c r="D87" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="52" t="s">
+      <c r="E87" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F87" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G87" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" s="41"/>
     </row>
@@ -3270,10 +3293,10 @@
       <c r="D88" s="25"/>
       <c r="E88" s="25"/>
       <c r="F88" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H88" s="25"/>
     </row>
@@ -3284,10 +3307,10 @@
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
       <c r="F89" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H89" s="25"/>
     </row>
@@ -3298,15 +3321,15 @@
       <c r="D90" s="30"/>
       <c r="E90" s="30"/>
       <c r="F90" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G90" s="47" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="G90" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="H90" s="30"/>
     </row>
     <row r="91">
-      <c r="A91" s="54"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="35"/>
       <c r="C91" s="35"/>
       <c r="D91" s="35"/>
@@ -3316,8 +3339,8 @@
       <c r="H91" s="33"/>
     </row>
     <row r="92">
-      <c r="A92" s="55" t="s">
-        <v>94</v>
+      <c r="A92" s="53" t="s">
+        <v>95</v>
       </c>
       <c r="B92" s="37"/>
       <c r="C92" s="37"/>
@@ -3328,7 +3351,7 @@
       <c r="H92" s="38"/>
     </row>
     <row r="93">
-      <c r="A93" s="56"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="37"/>
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
@@ -3339,25 +3362,27 @@
     </row>
     <row r="94">
       <c r="A94" s="40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C94" s="51"/>
+        <v>97</v>
+      </c>
+      <c r="C94" s="49"/>
       <c r="D94" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="52" t="s">
+      <c r="E94" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="H94" s="41"/>
+        <v>99</v>
+      </c>
+      <c r="H94" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="30"/>
@@ -3366,34 +3391,36 @@
       <c r="D95" s="30"/>
       <c r="E95" s="30"/>
       <c r="F95" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G95" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H95" s="30"/>
     </row>
     <row r="96">
       <c r="A96" s="40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C96" s="51"/>
+        <v>103</v>
+      </c>
+      <c r="C96" s="49"/>
       <c r="D96" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="52" t="s">
+      <c r="E96" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="H96" s="41"/>
+        <v>99</v>
+      </c>
+      <c r="H96" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="30"/>
@@ -3402,34 +3429,36 @@
       <c r="D97" s="30"/>
       <c r="E97" s="30"/>
       <c r="F97" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H97" s="30"/>
     </row>
     <row r="98">
       <c r="A98" s="40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" s="51"/>
+        <v>107</v>
+      </c>
+      <c r="C98" s="49"/>
       <c r="D98" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E98" s="52" t="s">
+      <c r="E98" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G98" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="H98" s="41"/>
+        <v>99</v>
+      </c>
+      <c r="H98" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="30"/>
@@ -3438,15 +3467,15 @@
       <c r="D99" s="30"/>
       <c r="E99" s="30"/>
       <c r="F99" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G99" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H99" s="30"/>
     </row>
     <row r="100">
-      <c r="A100" s="54"/>
+      <c r="A100" s="52"/>
       <c r="B100" s="35"/>
       <c r="C100" s="35"/>
       <c r="D100" s="35"/>
@@ -3456,8 +3485,8 @@
       <c r="H100" s="33"/>
     </row>
     <row r="101">
-      <c r="A101" s="55" t="s">
-        <v>109</v>
+      <c r="A101" s="53" t="s">
+        <v>110</v>
       </c>
       <c r="B101" s="37"/>
       <c r="C101" s="37"/>
@@ -3468,7 +3497,7 @@
       <c r="H101" s="38"/>
     </row>
     <row r="102">
-      <c r="A102" s="56"/>
+      <c r="A102" s="54"/>
       <c r="B102" s="37"/>
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
@@ -3479,10 +3508,10 @@
     </row>
     <row r="103">
       <c r="A103" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B103" s="57" t="s">
         <v>111</v>
+      </c>
+      <c r="B103" s="55" t="s">
+        <v>112</v>
       </c>
       <c r="C103" s="19"/>
       <c r="D103" s="41" t="s">
@@ -3492,12 +3521,14 @@
         <v>26</v>
       </c>
       <c r="F103" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G103" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="H103" s="41"/>
+        <v>114</v>
+      </c>
+      <c r="H103" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="30"/>
@@ -3506,37 +3537,39 @@
       <c r="D104" s="30"/>
       <c r="E104" s="30"/>
       <c r="F104" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G104" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H104" s="30"/>
     </row>
     <row r="105">
-      <c r="A105" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="B105" s="59" t="s">
+      <c r="A105" s="56" t="s">
         <v>117</v>
       </c>
+      <c r="B105" s="57" t="s">
+        <v>118</v>
+      </c>
       <c r="C105" s="29"/>
-      <c r="D105" s="60" t="s">
+      <c r="D105" s="58" t="s">
         <v>10</v>
       </c>
       <c r="E105" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G105" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="H105" s="60"/>
+        <v>120</v>
+      </c>
+      <c r="H105" s="58" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="54"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="35"/>
       <c r="C106" s="35"/>
       <c r="D106" s="35"/>
@@ -3546,8 +3579,8 @@
       <c r="H106" s="33"/>
     </row>
     <row r="107">
-      <c r="A107" s="55" t="s">
-        <v>120</v>
+      <c r="A107" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="B107" s="37"/>
       <c r="C107" s="37"/>
@@ -3558,7 +3591,7 @@
       <c r="H107" s="38"/>
     </row>
     <row r="108">
-      <c r="A108" s="54"/>
+      <c r="A108" s="52"/>
       <c r="B108" s="35"/>
       <c r="C108" s="35"/>
       <c r="D108" s="35"/>
@@ -3569,10 +3602,10 @@
     </row>
     <row r="109">
       <c r="A109" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="B109" s="57" t="s">
-        <v>111</v>
+        <v>122</v>
+      </c>
+      <c r="B109" s="55" t="s">
+        <v>112</v>
       </c>
       <c r="C109" s="19"/>
       <c r="D109" s="41" t="s">
@@ -3582,12 +3615,14 @@
         <v>26</v>
       </c>
       <c r="F109" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H109" s="41"/>
+        <v>124</v>
+      </c>
+      <c r="H109" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="25"/>
@@ -3596,10 +3631,10 @@
       <c r="D110" s="25"/>
       <c r="E110" s="25"/>
       <c r="F110" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H110" s="25"/>
     </row>
@@ -3610,19 +3645,19 @@
       <c r="D111" s="30"/>
       <c r="E111" s="30"/>
       <c r="F111" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H111" s="30"/>
     </row>
     <row r="112">
       <c r="A112" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B112" s="57" t="s">
         <v>129</v>
+      </c>
+      <c r="B112" s="55" t="s">
+        <v>130</v>
       </c>
       <c r="C112" s="19"/>
       <c r="D112" s="41" t="s">
@@ -3632,12 +3667,14 @@
         <v>26</v>
       </c>
       <c r="F112" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G112" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H112" s="41"/>
+        <v>124</v>
+      </c>
+      <c r="H112" s="41" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="30"/>
@@ -3646,56 +3683,60 @@
       <c r="D113" s="30"/>
       <c r="E113" s="30"/>
       <c r="F113" s="29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G113" s="29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H113" s="30"/>
     </row>
     <row r="114">
-      <c r="A114" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B114" s="59" t="s">
-        <v>129</v>
+      <c r="A114" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" s="57" t="s">
+        <v>135</v>
       </c>
       <c r="C114" s="29"/>
-      <c r="D114" s="60" t="s">
+      <c r="D114" s="58" t="s">
         <v>10</v>
       </c>
       <c r="E114" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F114" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G114" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="H114" s="60"/>
+        <v>136</v>
+      </c>
+      <c r="G114" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="H114" s="58" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="B115" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="C115" s="57"/>
-      <c r="D115" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" s="55"/>
+      <c r="D115" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="57" t="s">
+      <c r="E115" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F115" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="G115" s="59" t="s">
+      <c r="F115" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="H115" s="41"/>
+      <c r="G115" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H115" s="41" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="25"/>
@@ -3703,11 +3744,11 @@
       <c r="C116" s="25"/>
       <c r="D116" s="25"/>
       <c r="E116" s="25"/>
-      <c r="F116" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G116" s="59" t="s">
-        <v>138</v>
+      <c r="F116" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G116" s="57" t="s">
+        <v>141</v>
       </c>
       <c r="H116" s="25"/>
     </row>
@@ -3717,11 +3758,11 @@
       <c r="C117" s="25"/>
       <c r="D117" s="25"/>
       <c r="E117" s="25"/>
-      <c r="F117" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="G117" s="59" t="s">
-        <v>140</v>
+      <c r="F117" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="G117" s="57" t="s">
+        <v>143</v>
       </c>
       <c r="H117" s="25"/>
     </row>
@@ -3731,11 +3772,11 @@
       <c r="C118" s="25"/>
       <c r="D118" s="25"/>
       <c r="E118" s="25"/>
-      <c r="F118" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="G118" s="59" t="s">
-        <v>142</v>
+      <c r="F118" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="G118" s="57" t="s">
+        <v>145</v>
       </c>
       <c r="H118" s="25"/>
     </row>
@@ -3745,35 +3786,37 @@
       <c r="C119" s="30"/>
       <c r="D119" s="30"/>
       <c r="E119" s="30"/>
-      <c r="F119" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G119" s="59" t="s">
-        <v>144</v>
+      <c r="F119" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="G119" s="57" t="s">
+        <v>147</v>
       </c>
       <c r="H119" s="30"/>
     </row>
     <row r="120">
       <c r="A120" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="B120" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="C120" s="57"/>
-      <c r="D120" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C120" s="55"/>
+      <c r="D120" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E120" s="57" t="s">
+      <c r="E120" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F120" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="G120" s="59" t="s">
+      <c r="F120" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="H120" s="41"/>
+      <c r="G120" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H120" s="41" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="25"/>
@@ -3781,11 +3824,11 @@
       <c r="C121" s="25"/>
       <c r="D121" s="25"/>
       <c r="E121" s="25"/>
-      <c r="F121" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G121" s="59" t="s">
-        <v>138</v>
+      <c r="F121" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G121" s="57" t="s">
+        <v>141</v>
       </c>
       <c r="H121" s="25"/>
     </row>
@@ -3795,11 +3838,11 @@
       <c r="C122" s="25"/>
       <c r="D122" s="25"/>
       <c r="E122" s="25"/>
-      <c r="F122" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="G122" s="59" t="s">
-        <v>140</v>
+      <c r="F122" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="G122" s="57" t="s">
+        <v>143</v>
       </c>
       <c r="H122" s="25"/>
     </row>
@@ -3809,35 +3852,37 @@
       <c r="C123" s="30"/>
       <c r="D123" s="30"/>
       <c r="E123" s="30"/>
-      <c r="F123" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="G123" s="59" t="s">
-        <v>148</v>
+      <c r="F123" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G123" s="57" t="s">
+        <v>151</v>
       </c>
       <c r="H123" s="30"/>
     </row>
     <row r="124">
       <c r="A124" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="B124" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="C124" s="57"/>
-      <c r="D124" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" s="55"/>
+      <c r="D124" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E124" s="57" t="s">
+      <c r="E124" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F124" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="G124" s="59" t="s">
+      <c r="F124" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="H124" s="41"/>
+      <c r="G124" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H124" s="41" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="25"/>
@@ -3845,11 +3890,11 @@
       <c r="C125" s="25"/>
       <c r="D125" s="25"/>
       <c r="E125" s="25"/>
-      <c r="F125" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G125" s="59" t="s">
-        <v>138</v>
+      <c r="F125" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G125" s="57" t="s">
+        <v>141</v>
       </c>
       <c r="H125" s="25"/>
     </row>
@@ -3859,11 +3904,11 @@
       <c r="C126" s="25"/>
       <c r="D126" s="25"/>
       <c r="E126" s="25"/>
-      <c r="F126" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="G126" s="59" t="s">
-        <v>152</v>
+      <c r="F126" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="G126" s="57" t="s">
+        <v>155</v>
       </c>
       <c r="H126" s="25"/>
     </row>
@@ -3873,35 +3918,37 @@
       <c r="C127" s="30"/>
       <c r="D127" s="30"/>
       <c r="E127" s="30"/>
-      <c r="F127" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="G127" s="59" t="s">
-        <v>153</v>
+      <c r="F127" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G127" s="57" t="s">
+        <v>156</v>
       </c>
       <c r="H127" s="30"/>
     </row>
     <row r="128">
       <c r="A128" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="B128" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C128" s="57"/>
-      <c r="D128" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B128" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C128" s="55"/>
+      <c r="D128" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E128" s="57" t="s">
+      <c r="E128" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F128" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="G128" s="59" t="s">
+      <c r="F128" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="H128" s="41"/>
+      <c r="G128" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H128" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="25"/>
@@ -3909,11 +3956,11 @@
       <c r="C129" s="25"/>
       <c r="D129" s="25"/>
       <c r="E129" s="25"/>
-      <c r="F129" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G129" s="59" t="s">
-        <v>138</v>
+      <c r="F129" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G129" s="57" t="s">
+        <v>141</v>
       </c>
       <c r="H129" s="25"/>
     </row>
@@ -3923,11 +3970,11 @@
       <c r="C130" s="25"/>
       <c r="D130" s="25"/>
       <c r="E130" s="25"/>
-      <c r="F130" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="G130" s="59" t="s">
-        <v>157</v>
+      <c r="F130" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="G130" s="57" t="s">
+        <v>160</v>
       </c>
       <c r="H130" s="25"/>
     </row>
@@ -3937,35 +3984,37 @@
       <c r="C131" s="30"/>
       <c r="D131" s="30"/>
       <c r="E131" s="30"/>
-      <c r="F131" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="G131" s="47" t="s">
-        <v>158</v>
+      <c r="F131" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G131" s="46" t="s">
+        <v>161</v>
       </c>
       <c r="H131" s="30"/>
     </row>
     <row r="132">
       <c r="A132" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="B132" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="C132" s="57"/>
-      <c r="D132" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B132" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C132" s="55"/>
+      <c r="D132" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="57" t="s">
+      <c r="E132" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F132" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="G132" s="59" t="s">
+      <c r="F132" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="H132" s="41"/>
+      <c r="G132" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H132" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="25"/>
@@ -3973,11 +4022,11 @@
       <c r="C133" s="25"/>
       <c r="D133" s="25"/>
       <c r="E133" s="25"/>
-      <c r="F133" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G133" s="59" t="s">
-        <v>138</v>
+      <c r="F133" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G133" s="57" t="s">
+        <v>141</v>
       </c>
       <c r="H133" s="25"/>
     </row>
@@ -3987,11 +4036,11 @@
       <c r="C134" s="25"/>
       <c r="D134" s="25"/>
       <c r="E134" s="25"/>
-      <c r="F134" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="G134" s="59" t="s">
-        <v>157</v>
+      <c r="F134" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="G134" s="57" t="s">
+        <v>160</v>
       </c>
       <c r="H134" s="25"/>
     </row>
@@ -4001,35 +4050,37 @@
       <c r="C135" s="30"/>
       <c r="D135" s="30"/>
       <c r="E135" s="30"/>
-      <c r="F135" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="G135" s="47" t="s">
-        <v>158</v>
+      <c r="F135" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G135" s="46" t="s">
+        <v>161</v>
       </c>
       <c r="H135" s="30"/>
     </row>
     <row r="136">
       <c r="A136" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B136" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="C136" s="57"/>
-      <c r="D136" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C136" s="55"/>
+      <c r="D136" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E136" s="57" t="s">
+      <c r="E136" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F136" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="G136" s="59" t="s">
+      <c r="F136" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="H136" s="41"/>
+      <c r="G136" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H136" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="25"/>
@@ -4037,11 +4088,11 @@
       <c r="C137" s="25"/>
       <c r="D137" s="25"/>
       <c r="E137" s="25"/>
-      <c r="F137" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G137" s="59" t="s">
-        <v>138</v>
+      <c r="F137" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G137" s="57" t="s">
+        <v>141</v>
       </c>
       <c r="H137" s="25"/>
     </row>
@@ -4051,11 +4102,11 @@
       <c r="C138" s="25"/>
       <c r="D138" s="25"/>
       <c r="E138" s="25"/>
-      <c r="F138" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="G138" s="59" t="s">
-        <v>140</v>
+      <c r="F138" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="G138" s="57" t="s">
+        <v>143</v>
       </c>
       <c r="H138" s="25"/>
     </row>
@@ -4065,11 +4116,11 @@
       <c r="C139" s="25"/>
       <c r="D139" s="25"/>
       <c r="E139" s="25"/>
-      <c r="F139" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="G139" s="59" t="s">
-        <v>165</v>
+      <c r="F139" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G139" s="57" t="s">
+        <v>168</v>
       </c>
       <c r="H139" s="25"/>
     </row>
@@ -4079,35 +4130,37 @@
       <c r="C140" s="30"/>
       <c r="D140" s="30"/>
       <c r="E140" s="30"/>
-      <c r="F140" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G140" s="47" t="s">
-        <v>166</v>
+      <c r="F140" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="G140" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="H140" s="30"/>
     </row>
     <row r="141">
       <c r="A141" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="B141" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C141" s="57"/>
-      <c r="D141" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B141" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C141" s="55"/>
+      <c r="D141" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="57" t="s">
+      <c r="E141" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F141" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="G141" s="59" t="s">
+      <c r="F141" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="H141" s="41"/>
+      <c r="G141" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H141" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="25"/>
@@ -4115,11 +4168,11 @@
       <c r="C142" s="25"/>
       <c r="D142" s="25"/>
       <c r="E142" s="25"/>
-      <c r="F142" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G142" s="59" t="s">
-        <v>138</v>
+      <c r="F142" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G142" s="57" t="s">
+        <v>141</v>
       </c>
       <c r="H142" s="25"/>
     </row>
@@ -4129,11 +4182,11 @@
       <c r="C143" s="25"/>
       <c r="D143" s="25"/>
       <c r="E143" s="25"/>
-      <c r="F143" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="G143" s="59" t="s">
-        <v>140</v>
+      <c r="F143" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="G143" s="57" t="s">
+        <v>143</v>
       </c>
       <c r="H143" s="25"/>
     </row>
@@ -4143,11 +4196,11 @@
       <c r="C144" s="25"/>
       <c r="D144" s="25"/>
       <c r="E144" s="25"/>
-      <c r="F144" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="G144" s="59" t="s">
-        <v>165</v>
+      <c r="F144" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="G144" s="57" t="s">
+        <v>168</v>
       </c>
       <c r="H144" s="25"/>
     </row>
@@ -4157,33 +4210,33 @@
       <c r="C145" s="30"/>
       <c r="D145" s="30"/>
       <c r="E145" s="30"/>
-      <c r="F145" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G145" s="47" t="s">
-        <v>166</v>
+      <c r="F145" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="G145" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="H145" s="30"/>
     </row>
     <row r="146">
       <c r="A146" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B146" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="C146" s="57"/>
-      <c r="D146" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="B146" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C146" s="55"/>
+      <c r="D146" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E146" s="57" t="s">
+      <c r="E146" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F146" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="G146" s="59" t="s">
+      <c r="F146" s="57" t="s">
         <v>123</v>
+      </c>
+      <c r="G146" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="H146" s="41"/>
     </row>
@@ -4193,11 +4246,11 @@
       <c r="C147" s="25"/>
       <c r="D147" s="25"/>
       <c r="E147" s="25"/>
-      <c r="F147" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G147" s="59" t="s">
-        <v>138</v>
+      <c r="F147" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G147" s="57" t="s">
+        <v>141</v>
       </c>
       <c r="H147" s="25"/>
     </row>
@@ -4207,11 +4260,11 @@
       <c r="C148" s="25"/>
       <c r="D148" s="25"/>
       <c r="E148" s="25"/>
-      <c r="F148" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="G148" s="59" t="s">
-        <v>173</v>
+      <c r="F148" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="G148" s="57" t="s">
+        <v>176</v>
       </c>
       <c r="H148" s="25"/>
     </row>
@@ -4221,35 +4274,37 @@
       <c r="C149" s="30"/>
       <c r="D149" s="30"/>
       <c r="E149" s="30"/>
-      <c r="F149" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="G149" s="59" t="s">
-        <v>174</v>
+      <c r="F149" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G149" s="57" t="s">
+        <v>177</v>
       </c>
       <c r="H149" s="30"/>
     </row>
     <row r="150">
       <c r="A150" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="B150" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="C150" s="57"/>
-      <c r="D150" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="B150" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C150" s="55"/>
+      <c r="D150" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E150" s="57" t="s">
+      <c r="E150" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F150" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="G150" s="59" t="s">
+      <c r="F150" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="H150" s="41"/>
+      <c r="G150" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H150" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="25"/>
@@ -4257,11 +4312,11 @@
       <c r="C151" s="25"/>
       <c r="D151" s="25"/>
       <c r="E151" s="25"/>
-      <c r="F151" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G151" s="59" t="s">
-        <v>138</v>
+      <c r="F151" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G151" s="57" t="s">
+        <v>141</v>
       </c>
       <c r="H151" s="25"/>
     </row>
@@ -4271,38 +4326,40 @@
       <c r="C152" s="30"/>
       <c r="D152" s="30"/>
       <c r="E152" s="30"/>
-      <c r="F152" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="G152" s="59" t="s">
-        <v>178</v>
+      <c r="F152" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="G152" s="57" t="s">
+        <v>181</v>
       </c>
       <c r="H152" s="30"/>
     </row>
     <row r="153">
-      <c r="A153" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="B153" s="59" t="s">
-        <v>180</v>
+      <c r="A153" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="B153" s="57" t="s">
+        <v>183</v>
       </c>
       <c r="C153" s="29"/>
-      <c r="D153" s="60" t="s">
+      <c r="D153" s="58" t="s">
         <v>10</v>
       </c>
       <c r="E153" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F153" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="G153" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="H153" s="60"/>
+        <v>184</v>
+      </c>
+      <c r="G153" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="H153" s="58" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" s="54"/>
+      <c r="A154" s="52"/>
       <c r="B154" s="35"/>
       <c r="C154" s="35"/>
       <c r="D154" s="35"/>
@@ -4312,8 +4369,8 @@
       <c r="H154" s="33"/>
     </row>
     <row r="155">
-      <c r="A155" s="55" t="s">
-        <v>183</v>
+      <c r="A155" s="53" t="s">
+        <v>186</v>
       </c>
       <c r="B155" s="37"/>
       <c r="C155" s="37"/>
@@ -4324,7 +4381,7 @@
       <c r="H155" s="38"/>
     </row>
     <row r="156">
-      <c r="A156" s="54"/>
+      <c r="A156" s="52"/>
       <c r="B156" s="35"/>
       <c r="C156" s="35"/>
       <c r="D156" s="35"/>
@@ -4334,11 +4391,11 @@
       <c r="H156" s="33"/>
     </row>
     <row r="157">
-      <c r="A157" s="63" t="s">
-        <v>184</v>
+      <c r="A157" s="61" t="s">
+        <v>187</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C157" s="19"/>
       <c r="D157" s="41" t="s">
@@ -4348,10 +4405,10 @@
         <v>26</v>
       </c>
       <c r="F157" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G157" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H157" s="41"/>
     </row>
@@ -4362,10 +4419,10 @@
       <c r="D158" s="25"/>
       <c r="E158" s="25"/>
       <c r="F158" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G158" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H158" s="25"/>
     </row>
@@ -4376,19 +4433,19 @@
       <c r="D159" s="30"/>
       <c r="E159" s="30"/>
       <c r="F159" s="29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G159" s="29" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H159" s="30"/>
     </row>
     <row r="160">
-      <c r="A160" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="B160" s="57" t="s">
-        <v>191</v>
+      <c r="A160" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="B160" s="55" t="s">
+        <v>194</v>
       </c>
       <c r="C160" s="19"/>
       <c r="D160" s="41" t="s">
@@ -4398,12 +4455,14 @@
         <v>26</v>
       </c>
       <c r="F160" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G160" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H160" s="41"/>
+        <v>124</v>
+      </c>
+      <c r="H160" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="16"/>
@@ -4412,10 +4471,10 @@
       <c r="D161" s="25"/>
       <c r="E161" s="25"/>
       <c r="F161" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G161" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H161" s="25"/>
     </row>
@@ -4426,10 +4485,10 @@
       <c r="D162" s="25"/>
       <c r="E162" s="25"/>
       <c r="F162" s="29" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G162" s="29" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H162" s="25"/>
     </row>
@@ -4440,19 +4499,19 @@
       <c r="D163" s="30"/>
       <c r="E163" s="30"/>
       <c r="F163" s="29" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G163" s="29" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H163" s="30"/>
     </row>
     <row r="164">
-      <c r="A164" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="B164" s="57" t="s">
-        <v>197</v>
+      <c r="A164" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="B164" s="55" t="s">
+        <v>200</v>
       </c>
       <c r="C164" s="19"/>
       <c r="D164" s="41" t="s">
@@ -4462,10 +4521,10 @@
         <v>26</v>
       </c>
       <c r="F164" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G164" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H164" s="41"/>
     </row>
@@ -4476,10 +4535,10 @@
       <c r="D165" s="25"/>
       <c r="E165" s="25"/>
       <c r="F165" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G165" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H165" s="25"/>
     </row>
@@ -4490,10 +4549,10 @@
       <c r="D166" s="25"/>
       <c r="E166" s="25"/>
       <c r="F166" s="29" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G166" s="29" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H166" s="25"/>
     </row>
@@ -4504,19 +4563,19 @@
       <c r="D167" s="30"/>
       <c r="E167" s="30"/>
       <c r="F167" s="29" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G167" s="29" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H167" s="30"/>
     </row>
     <row r="168">
-      <c r="A168" s="63" t="s">
-        <v>202</v>
-      </c>
-      <c r="B168" s="57" t="s">
-        <v>203</v>
+      <c r="A168" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="B168" s="55" t="s">
+        <v>206</v>
       </c>
       <c r="C168" s="19"/>
       <c r="D168" s="41" t="s">
@@ -4526,10 +4585,10 @@
         <v>26</v>
       </c>
       <c r="F168" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G168" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H168" s="41"/>
     </row>
@@ -4540,10 +4599,10 @@
       <c r="D169" s="25"/>
       <c r="E169" s="25"/>
       <c r="F169" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G169" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H169" s="25"/>
     </row>
@@ -4554,10 +4613,10 @@
       <c r="D170" s="25"/>
       <c r="E170" s="25"/>
       <c r="F170" s="29" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G170" s="29" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H170" s="25"/>
     </row>
@@ -4568,19 +4627,19 @@
       <c r="D171" s="30"/>
       <c r="E171" s="30"/>
       <c r="F171" s="29" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G171" s="29" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H171" s="30"/>
     </row>
     <row r="172">
-      <c r="A172" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="B172" s="57" t="s">
-        <v>205</v>
+      <c r="A172" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="B172" s="55" t="s">
+        <v>208</v>
       </c>
       <c r="C172" s="19"/>
       <c r="D172" s="41" t="s">
@@ -4590,10 +4649,10 @@
         <v>26</v>
       </c>
       <c r="F172" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G172" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H172" s="41"/>
     </row>
@@ -4604,10 +4663,10 @@
       <c r="D173" s="25"/>
       <c r="E173" s="25"/>
       <c r="F173" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G173" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H173" s="25"/>
     </row>
@@ -4618,10 +4677,10 @@
       <c r="D174" s="25"/>
       <c r="E174" s="25"/>
       <c r="F174" s="29" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G174" s="29" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H174" s="25"/>
     </row>
@@ -4632,10 +4691,10 @@
       <c r="D175" s="25"/>
       <c r="E175" s="25"/>
       <c r="F175" s="29" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G175" s="29" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H175" s="25"/>
     </row>
@@ -4646,19 +4705,19 @@
       <c r="D176" s="30"/>
       <c r="E176" s="30"/>
       <c r="F176" s="29" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G176" s="29" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H176" s="30"/>
     </row>
     <row r="177">
-      <c r="A177" s="63" t="s">
-        <v>212</v>
+      <c r="A177" s="61" t="s">
+        <v>215</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C177" s="19"/>
       <c r="D177" s="41" t="s">
@@ -4668,10 +4727,10 @@
         <v>26</v>
       </c>
       <c r="F177" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G177" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H177" s="41"/>
     </row>
@@ -4682,10 +4741,10 @@
       <c r="D178" s="25"/>
       <c r="E178" s="25"/>
       <c r="F178" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G178" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H178" s="25"/>
     </row>
@@ -4696,10 +4755,10 @@
       <c r="D179" s="25"/>
       <c r="E179" s="25"/>
       <c r="F179" s="29" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G179" s="29" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H179" s="25"/>
     </row>
@@ -4710,10 +4769,10 @@
       <c r="D180" s="25"/>
       <c r="E180" s="25"/>
       <c r="F180" s="29" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G180" s="29" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H180" s="25"/>
     </row>
@@ -4724,10 +4783,10 @@
       <c r="D181" s="25"/>
       <c r="E181" s="25"/>
       <c r="F181" s="29" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G181" s="29" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H181" s="25"/>
     </row>
@@ -4738,10 +4797,10 @@
       <c r="D182" s="25"/>
       <c r="E182" s="25"/>
       <c r="F182" s="29" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G182" s="29" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H182" s="25"/>
     </row>
@@ -4752,10 +4811,10 @@
       <c r="D183" s="25"/>
       <c r="E183" s="25"/>
       <c r="F183" s="29" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G183" s="29" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H183" s="25"/>
     </row>
@@ -4766,19 +4825,19 @@
       <c r="D184" s="30"/>
       <c r="E184" s="30"/>
       <c r="F184" s="29" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G184" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H184" s="30"/>
     </row>
     <row r="185">
-      <c r="A185" s="63" t="s">
-        <v>222</v>
+      <c r="A185" s="61" t="s">
+        <v>225</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C185" s="19"/>
       <c r="D185" s="41" t="s">
@@ -4788,10 +4847,10 @@
         <v>26</v>
       </c>
       <c r="F185" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G185" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H185" s="41"/>
     </row>
@@ -4802,10 +4861,10 @@
       <c r="D186" s="25"/>
       <c r="E186" s="25"/>
       <c r="F186" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G186" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H186" s="25"/>
     </row>
@@ -4816,10 +4875,10 @@
       <c r="D187" s="25"/>
       <c r="E187" s="25"/>
       <c r="F187" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G187" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H187" s="25"/>
     </row>
@@ -4829,11 +4888,11 @@
       <c r="C188" s="25"/>
       <c r="D188" s="25"/>
       <c r="E188" s="25"/>
-      <c r="F188" s="64" t="s">
-        <v>226</v>
+      <c r="F188" s="62" t="s">
+        <v>229</v>
       </c>
       <c r="G188" s="29" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H188" s="25"/>
     </row>
@@ -4844,19 +4903,19 @@
       <c r="D189" s="30"/>
       <c r="E189" s="30"/>
       <c r="F189" s="29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G189" s="29" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H189" s="30"/>
     </row>
     <row r="190">
-      <c r="A190" s="63" t="s">
-        <v>229</v>
+      <c r="A190" s="61" t="s">
+        <v>232</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C190" s="19"/>
       <c r="D190" s="41" t="s">
@@ -4866,10 +4925,10 @@
         <v>26</v>
       </c>
       <c r="F190" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G190" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H190" s="41"/>
     </row>
@@ -4880,10 +4939,10 @@
       <c r="D191" s="25"/>
       <c r="E191" s="25"/>
       <c r="F191" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G191" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H191" s="25"/>
     </row>
@@ -4894,10 +4953,10 @@
       <c r="D192" s="25"/>
       <c r="E192" s="25"/>
       <c r="F192" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G192" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H192" s="25"/>
     </row>
@@ -4907,11 +4966,11 @@
       <c r="C193" s="25"/>
       <c r="D193" s="25"/>
       <c r="E193" s="25"/>
-      <c r="F193" s="64" t="s">
-        <v>231</v>
+      <c r="F193" s="62" t="s">
+        <v>234</v>
       </c>
       <c r="G193" s="29" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H193" s="25"/>
     </row>
@@ -4922,19 +4981,19 @@
       <c r="D194" s="30"/>
       <c r="E194" s="30"/>
       <c r="F194" s="29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G194" s="29" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H194" s="30"/>
     </row>
     <row r="195">
-      <c r="A195" s="63" t="s">
-        <v>234</v>
+      <c r="A195" s="61" t="s">
+        <v>237</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C195" s="19"/>
       <c r="D195" s="41" t="s">
@@ -4944,10 +5003,10 @@
         <v>26</v>
       </c>
       <c r="F195" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G195" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H195" s="41"/>
     </row>
@@ -4958,10 +5017,10 @@
       <c r="D196" s="25"/>
       <c r="E196" s="25"/>
       <c r="F196" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G196" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H196" s="25"/>
     </row>
@@ -4972,10 +5031,10 @@
       <c r="D197" s="25"/>
       <c r="E197" s="25"/>
       <c r="F197" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G197" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H197" s="25"/>
     </row>
@@ -4985,11 +5044,11 @@
       <c r="C198" s="25"/>
       <c r="D198" s="25"/>
       <c r="E198" s="25"/>
-      <c r="F198" s="64" t="s">
-        <v>236</v>
+      <c r="F198" s="62" t="s">
+        <v>239</v>
       </c>
       <c r="G198" s="29" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H198" s="25"/>
     </row>
@@ -5000,32 +5059,32 @@
       <c r="D199" s="30"/>
       <c r="E199" s="30"/>
       <c r="F199" s="29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G199" s="29" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H199" s="30"/>
     </row>
     <row r="200">
       <c r="A200" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="B200" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="C200" s="57"/>
-      <c r="D200" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="B200" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="C200" s="55"/>
+      <c r="D200" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E200" s="57" t="s">
+      <c r="E200" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F200" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G200" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H200" s="41"/>
     </row>
@@ -5036,10 +5095,10 @@
       <c r="D201" s="25"/>
       <c r="E201" s="25"/>
       <c r="F201" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G201" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H201" s="25"/>
     </row>
@@ -5050,10 +5109,10 @@
       <c r="D202" s="25"/>
       <c r="E202" s="25"/>
       <c r="F202" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G202" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H202" s="25"/>
     </row>
@@ -5063,11 +5122,11 @@
       <c r="C203" s="25"/>
       <c r="D203" s="25"/>
       <c r="E203" s="25"/>
-      <c r="F203" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="G203" s="59" t="s">
-        <v>242</v>
+      <c r="F203" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G203" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="H203" s="25"/>
     </row>
@@ -5077,11 +5136,11 @@
       <c r="C204" s="25"/>
       <c r="D204" s="25"/>
       <c r="E204" s="25"/>
-      <c r="F204" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="G204" s="59" t="s">
-        <v>244</v>
+      <c r="F204" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="G204" s="57" t="s">
+        <v>247</v>
       </c>
       <c r="H204" s="25"/>
     </row>
@@ -5091,33 +5150,33 @@
       <c r="C205" s="30"/>
       <c r="D205" s="30"/>
       <c r="E205" s="30"/>
-      <c r="F205" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="G205" s="59" t="s">
-        <v>246</v>
+      <c r="F205" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="G205" s="57" t="s">
+        <v>249</v>
       </c>
       <c r="H205" s="30"/>
     </row>
     <row r="206">
       <c r="A206" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="B206" s="57" t="s">
-        <v>248</v>
-      </c>
-      <c r="C206" s="57"/>
-      <c r="D206" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="B206" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="C206" s="55"/>
+      <c r="D206" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E206" s="57" t="s">
+      <c r="E206" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F206" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G206" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H206" s="41"/>
     </row>
@@ -5128,10 +5187,10 @@
       <c r="D207" s="25"/>
       <c r="E207" s="25"/>
       <c r="F207" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G207" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H207" s="25"/>
     </row>
@@ -5142,10 +5201,10 @@
       <c r="D208" s="25"/>
       <c r="E208" s="25"/>
       <c r="F208" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G208" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H208" s="25"/>
     </row>
@@ -5155,11 +5214,11 @@
       <c r="C209" s="25"/>
       <c r="D209" s="25"/>
       <c r="E209" s="25"/>
-      <c r="F209" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="G209" s="59" t="s">
-        <v>242</v>
+      <c r="F209" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G209" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="H209" s="25"/>
     </row>
@@ -5169,33 +5228,33 @@
       <c r="C210" s="30"/>
       <c r="D210" s="30"/>
       <c r="E210" s="30"/>
-      <c r="F210" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G210" s="59" t="s">
-        <v>249</v>
+      <c r="F210" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="G210" s="57" t="s">
+        <v>252</v>
       </c>
       <c r="H210" s="30"/>
     </row>
     <row r="211">
       <c r="A211" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="B211" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="C211" s="57"/>
-      <c r="D211" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="B211" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C211" s="55"/>
+      <c r="D211" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E211" s="57" t="s">
+      <c r="E211" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F211" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G211" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H211" s="41"/>
     </row>
@@ -5206,10 +5265,10 @@
       <c r="D212" s="25"/>
       <c r="E212" s="25"/>
       <c r="F212" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G212" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H212" s="25"/>
     </row>
@@ -5220,10 +5279,10 @@
       <c r="D213" s="25"/>
       <c r="E213" s="25"/>
       <c r="F213" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G213" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H213" s="25"/>
     </row>
@@ -5233,11 +5292,11 @@
       <c r="C214" s="25"/>
       <c r="D214" s="25"/>
       <c r="E214" s="25"/>
-      <c r="F214" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="G214" s="59" t="s">
-        <v>142</v>
+      <c r="F214" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="G214" s="57" t="s">
+        <v>145</v>
       </c>
       <c r="H214" s="25"/>
     </row>
@@ -5247,35 +5306,37 @@
       <c r="C215" s="30"/>
       <c r="D215" s="30"/>
       <c r="E215" s="30"/>
-      <c r="F215" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G215" s="59" t="s">
-        <v>252</v>
+      <c r="F215" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="G215" s="57" t="s">
+        <v>255</v>
       </c>
       <c r="H215" s="30"/>
     </row>
     <row r="216">
       <c r="A216" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="B216" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C216" s="57"/>
-      <c r="D216" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="B216" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C216" s="55"/>
+      <c r="D216" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E216" s="57" t="s">
+      <c r="E216" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F216" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G216" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H216" s="41"/>
+        <v>124</v>
+      </c>
+      <c r="H216" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="25"/>
@@ -5284,10 +5345,10 @@
       <c r="D217" s="25"/>
       <c r="E217" s="25"/>
       <c r="F217" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G217" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H217" s="25"/>
     </row>
@@ -5298,10 +5359,10 @@
       <c r="D218" s="25"/>
       <c r="E218" s="25"/>
       <c r="F218" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G218" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H218" s="25"/>
     </row>
@@ -5311,11 +5372,11 @@
       <c r="C219" s="25"/>
       <c r="D219" s="25"/>
       <c r="E219" s="25"/>
-      <c r="F219" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="G219" s="59" t="s">
-        <v>165</v>
+      <c r="F219" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G219" s="57" t="s">
+        <v>168</v>
       </c>
       <c r="H219" s="25"/>
     </row>
@@ -5325,35 +5386,37 @@
       <c r="C220" s="30"/>
       <c r="D220" s="30"/>
       <c r="E220" s="30"/>
-      <c r="F220" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G220" s="47" t="s">
-        <v>166</v>
+      <c r="F220" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="G220" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="H220" s="30"/>
     </row>
     <row r="221">
       <c r="A221" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="B221" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="C221" s="57"/>
-      <c r="D221" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="B221" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C221" s="55"/>
+      <c r="D221" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E221" s="57" t="s">
+      <c r="E221" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F221" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G221" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H221" s="41"/>
+        <v>124</v>
+      </c>
+      <c r="H221" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="25"/>
@@ -5362,10 +5425,10 @@
       <c r="D222" s="25"/>
       <c r="E222" s="25"/>
       <c r="F222" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G222" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H222" s="25"/>
     </row>
@@ -5376,10 +5439,10 @@
       <c r="D223" s="25"/>
       <c r="E223" s="25"/>
       <c r="F223" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G223" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H223" s="25"/>
     </row>
@@ -5389,11 +5452,11 @@
       <c r="C224" s="25"/>
       <c r="D224" s="25"/>
       <c r="E224" s="25"/>
-      <c r="F224" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="G224" s="59" t="s">
-        <v>165</v>
+      <c r="F224" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="G224" s="57" t="s">
+        <v>168</v>
       </c>
       <c r="H224" s="25"/>
     </row>
@@ -5403,35 +5466,37 @@
       <c r="C225" s="30"/>
       <c r="D225" s="30"/>
       <c r="E225" s="30"/>
-      <c r="F225" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G225" s="47" t="s">
-        <v>166</v>
+      <c r="F225" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="G225" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="H225" s="30"/>
     </row>
     <row r="226">
       <c r="A226" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="B226" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="C226" s="57"/>
-      <c r="D226" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="B226" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C226" s="55"/>
+      <c r="D226" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E226" s="57" t="s">
+      <c r="E226" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F226" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G226" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H226" s="41"/>
+        <v>124</v>
+      </c>
+      <c r="H226" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="25"/>
@@ -5440,10 +5505,10 @@
       <c r="D227" s="25"/>
       <c r="E227" s="25"/>
       <c r="F227" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G227" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H227" s="25"/>
     </row>
@@ -5454,10 +5519,10 @@
       <c r="D228" s="25"/>
       <c r="E228" s="25"/>
       <c r="F228" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G228" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H228" s="25"/>
     </row>
@@ -5467,11 +5532,11 @@
       <c r="C229" s="25"/>
       <c r="D229" s="25"/>
       <c r="E229" s="25"/>
-      <c r="F229" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="G229" s="59" t="s">
-        <v>242</v>
+      <c r="F229" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G229" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="H229" s="25"/>
     </row>
@@ -5481,11 +5546,11 @@
       <c r="C230" s="25"/>
       <c r="D230" s="25"/>
       <c r="E230" s="25"/>
-      <c r="F230" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="G230" s="59" t="s">
-        <v>257</v>
+      <c r="F230" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="G230" s="57" t="s">
+        <v>260</v>
       </c>
       <c r="H230" s="25"/>
     </row>
@@ -5495,35 +5560,37 @@
       <c r="C231" s="30"/>
       <c r="D231" s="30"/>
       <c r="E231" s="30"/>
-      <c r="F231" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="G231" s="47" t="s">
-        <v>258</v>
+      <c r="F231" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="G231" s="46" t="s">
+        <v>261</v>
       </c>
       <c r="H231" s="30"/>
     </row>
     <row r="232">
       <c r="A232" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="B232" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C232" s="57"/>
-      <c r="D232" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="B232" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C232" s="55"/>
+      <c r="D232" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E232" s="57" t="s">
+      <c r="E232" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F232" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G232" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H232" s="41"/>
+        <v>124</v>
+      </c>
+      <c r="H232" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="25"/>
@@ -5532,10 +5599,10 @@
       <c r="D233" s="25"/>
       <c r="E233" s="25"/>
       <c r="F233" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G233" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H233" s="25"/>
     </row>
@@ -5546,10 +5613,10 @@
       <c r="D234" s="25"/>
       <c r="E234" s="25"/>
       <c r="F234" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G234" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H234" s="25"/>
     </row>
@@ -5559,11 +5626,11 @@
       <c r="C235" s="25"/>
       <c r="D235" s="25"/>
       <c r="E235" s="25"/>
-      <c r="F235" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="G235" s="59" t="s">
-        <v>242</v>
+      <c r="F235" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G235" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="H235" s="25"/>
     </row>
@@ -5573,11 +5640,11 @@
       <c r="C236" s="25"/>
       <c r="D236" s="25"/>
       <c r="E236" s="25"/>
-      <c r="F236" s="59" t="s">
+      <c r="F236" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="G236" s="57" t="s">
         <v>260</v>
-      </c>
-      <c r="G236" s="59" t="s">
-        <v>257</v>
       </c>
       <c r="H236" s="25"/>
     </row>
@@ -5587,33 +5654,33 @@
       <c r="C237" s="30"/>
       <c r="D237" s="30"/>
       <c r="E237" s="30"/>
-      <c r="F237" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="G237" s="47" t="s">
-        <v>258</v>
+      <c r="F237" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="G237" s="46" t="s">
+        <v>261</v>
       </c>
       <c r="H237" s="30"/>
     </row>
     <row r="238">
       <c r="A238" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="B238" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="C238" s="57"/>
-      <c r="D238" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="B238" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C238" s="55"/>
+      <c r="D238" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E238" s="57" t="s">
+      <c r="E238" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F238" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G238" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H238" s="41"/>
     </row>
@@ -5624,10 +5691,10 @@
       <c r="D239" s="25"/>
       <c r="E239" s="25"/>
       <c r="F239" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G239" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H239" s="25"/>
     </row>
@@ -5637,11 +5704,11 @@
       <c r="C240" s="25"/>
       <c r="D240" s="25"/>
       <c r="E240" s="25"/>
-      <c r="F240" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="G240" s="59" t="s">
-        <v>225</v>
+      <c r="F240" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="G240" s="57" t="s">
+        <v>228</v>
       </c>
       <c r="H240" s="25"/>
     </row>
@@ -5651,11 +5718,11 @@
       <c r="C241" s="25"/>
       <c r="D241" s="25"/>
       <c r="E241" s="25"/>
-      <c r="F241" s="62" t="s">
-        <v>262</v>
-      </c>
-      <c r="G241" s="59" t="s">
-        <v>263</v>
+      <c r="F241" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="G241" s="57" t="s">
+        <v>266</v>
       </c>
       <c r="H241" s="25"/>
     </row>
@@ -5665,33 +5732,33 @@
       <c r="C242" s="30"/>
       <c r="D242" s="30"/>
       <c r="E242" s="30"/>
-      <c r="F242" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G242" s="59" t="s">
-        <v>264</v>
+      <c r="F242" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="G242" s="57" t="s">
+        <v>267</v>
       </c>
       <c r="H242" s="30"/>
     </row>
     <row r="243">
       <c r="A243" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="B243" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="C243" s="57"/>
-      <c r="D243" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B243" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C243" s="55"/>
+      <c r="D243" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E243" s="57" t="s">
+      <c r="E243" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F243" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G243" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H243" s="41"/>
     </row>
@@ -5702,10 +5769,10 @@
       <c r="D244" s="25"/>
       <c r="E244" s="25"/>
       <c r="F244" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G244" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H244" s="25"/>
     </row>
@@ -5715,11 +5782,11 @@
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
       <c r="E245" s="25"/>
-      <c r="F245" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="G245" s="59" t="s">
-        <v>225</v>
+      <c r="F245" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="G245" s="57" t="s">
+        <v>228</v>
       </c>
       <c r="H245" s="25"/>
     </row>
@@ -5729,33 +5796,33 @@
       <c r="C246" s="30"/>
       <c r="D246" s="30"/>
       <c r="E246" s="30"/>
-      <c r="F246" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="G246" s="59" t="s">
-        <v>267</v>
+      <c r="F246" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="G246" s="57" t="s">
+        <v>270</v>
       </c>
       <c r="H246" s="30"/>
     </row>
     <row r="247">
       <c r="A247" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="B247" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="C247" s="57"/>
-      <c r="D247" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="B247" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="C247" s="55"/>
+      <c r="D247" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E247" s="57" t="s">
+      <c r="E247" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F247" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G247" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H247" s="41"/>
     </row>
@@ -5766,10 +5833,10 @@
       <c r="D248" s="25"/>
       <c r="E248" s="25"/>
       <c r="F248" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G248" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H248" s="25"/>
     </row>
@@ -5780,10 +5847,10 @@
       <c r="D249" s="25"/>
       <c r="E249" s="25"/>
       <c r="F249" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G249" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H249" s="25"/>
     </row>
@@ -5793,11 +5860,11 @@
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
       <c r="E250" s="25"/>
-      <c r="F250" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="G250" s="59" t="s">
-        <v>242</v>
+      <c r="F250" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G250" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="H250" s="25"/>
     </row>
@@ -5807,11 +5874,11 @@
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
       <c r="E251" s="25"/>
-      <c r="F251" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="G251" s="59" t="s">
-        <v>244</v>
+      <c r="F251" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="G251" s="57" t="s">
+        <v>247</v>
       </c>
       <c r="H251" s="25"/>
     </row>
@@ -5821,11 +5888,11 @@
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
       <c r="E252" s="25"/>
-      <c r="F252" s="64" t="s">
-        <v>270</v>
+      <c r="F252" s="62" t="s">
+        <v>273</v>
       </c>
       <c r="G252" s="29" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H252" s="25"/>
     </row>
@@ -5835,33 +5902,33 @@
       <c r="C253" s="30"/>
       <c r="D253" s="30"/>
       <c r="E253" s="30"/>
-      <c r="F253" s="59" t="s">
-        <v>272</v>
-      </c>
-      <c r="G253" s="59" t="s">
-        <v>273</v>
+      <c r="F253" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="G253" s="57" t="s">
+        <v>276</v>
       </c>
       <c r="H253" s="30"/>
     </row>
     <row r="254">
       <c r="A254" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="B254" s="57" t="s">
-        <v>275</v>
-      </c>
-      <c r="C254" s="57"/>
-      <c r="D254" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="B254" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="C254" s="55"/>
+      <c r="D254" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E254" s="57" t="s">
+      <c r="E254" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F254" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G254" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H254" s="41"/>
     </row>
@@ -5872,10 +5939,10 @@
       <c r="D255" s="25"/>
       <c r="E255" s="25"/>
       <c r="F255" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G255" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H255" s="25"/>
     </row>
@@ -5886,10 +5953,10 @@
       <c r="D256" s="25"/>
       <c r="E256" s="25"/>
       <c r="F256" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G256" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H256" s="25"/>
     </row>
@@ -5899,11 +5966,11 @@
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
       <c r="E257" s="25"/>
-      <c r="F257" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="G257" s="59" t="s">
-        <v>242</v>
+      <c r="F257" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G257" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="H257" s="25"/>
     </row>
@@ -5913,11 +5980,11 @@
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
       <c r="E258" s="25"/>
-      <c r="F258" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="G258" s="59" t="s">
-        <v>244</v>
+      <c r="F258" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="G258" s="57" t="s">
+        <v>247</v>
       </c>
       <c r="H258" s="25"/>
     </row>
@@ -5927,11 +5994,11 @@
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
       <c r="E259" s="25"/>
-      <c r="F259" s="64" t="s">
-        <v>276</v>
+      <c r="F259" s="62" t="s">
+        <v>279</v>
       </c>
       <c r="G259" s="29" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H259" s="25"/>
     </row>
@@ -5941,33 +6008,33 @@
       <c r="C260" s="30"/>
       <c r="D260" s="30"/>
       <c r="E260" s="30"/>
-      <c r="F260" s="59" t="s">
-        <v>272</v>
-      </c>
-      <c r="G260" s="59" t="s">
-        <v>278</v>
+      <c r="F260" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="G260" s="57" t="s">
+        <v>281</v>
       </c>
       <c r="H260" s="30"/>
     </row>
     <row r="261">
       <c r="A261" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="B261" s="57" t="s">
-        <v>280</v>
-      </c>
-      <c r="C261" s="57"/>
-      <c r="D261" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B261" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="C261" s="55"/>
+      <c r="D261" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E261" s="57" t="s">
+      <c r="E261" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F261" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G261" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H261" s="41"/>
     </row>
@@ -5978,10 +6045,10 @@
       <c r="D262" s="25"/>
       <c r="E262" s="25"/>
       <c r="F262" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G262" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H262" s="25"/>
     </row>
@@ -5992,10 +6059,10 @@
       <c r="D263" s="25"/>
       <c r="E263" s="25"/>
       <c r="F263" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G263" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H263" s="25"/>
     </row>
@@ -6005,11 +6072,11 @@
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
       <c r="E264" s="25"/>
-      <c r="F264" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="G264" s="59" t="s">
-        <v>242</v>
+      <c r="F264" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G264" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="H264" s="25"/>
     </row>
@@ -6019,11 +6086,11 @@
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
       <c r="E265" s="25"/>
-      <c r="F265" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="G265" s="59" t="s">
-        <v>244</v>
+      <c r="F265" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="G265" s="57" t="s">
+        <v>247</v>
       </c>
       <c r="H265" s="25"/>
     </row>
@@ -6033,11 +6100,11 @@
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
       <c r="E266" s="25"/>
-      <c r="F266" s="64" t="s">
-        <v>281</v>
+      <c r="F266" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="G266" s="29" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H266" s="25"/>
     </row>
@@ -6047,33 +6114,33 @@
       <c r="C267" s="30"/>
       <c r="D267" s="30"/>
       <c r="E267" s="30"/>
-      <c r="F267" s="59" t="s">
-        <v>272</v>
-      </c>
-      <c r="G267" s="59" t="s">
-        <v>283</v>
+      <c r="F267" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="G267" s="57" t="s">
+        <v>286</v>
       </c>
       <c r="H267" s="30"/>
     </row>
     <row r="268">
       <c r="A268" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="B268" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="C268" s="57"/>
-      <c r="D268" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B268" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="C268" s="55"/>
+      <c r="D268" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E268" s="57" t="s">
+      <c r="E268" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F268" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G268" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H268" s="41"/>
     </row>
@@ -6084,10 +6151,10 @@
       <c r="D269" s="25"/>
       <c r="E269" s="25"/>
       <c r="F269" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G269" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H269" s="25"/>
     </row>
@@ -6098,10 +6165,10 @@
       <c r="D270" s="25"/>
       <c r="E270" s="25"/>
       <c r="F270" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G270" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H270" s="25"/>
     </row>
@@ -6111,11 +6178,11 @@
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
       <c r="E271" s="25"/>
-      <c r="F271" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="G271" s="59" t="s">
-        <v>142</v>
+      <c r="F271" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="G271" s="57" t="s">
+        <v>145</v>
       </c>
       <c r="H271" s="25"/>
     </row>
@@ -6125,11 +6192,11 @@
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
       <c r="E272" s="25"/>
-      <c r="F272" s="64" t="s">
-        <v>286</v>
+      <c r="F272" s="62" t="s">
+        <v>289</v>
       </c>
       <c r="G272" s="29" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H272" s="25"/>
     </row>
@@ -6139,33 +6206,33 @@
       <c r="C273" s="30"/>
       <c r="D273" s="30"/>
       <c r="E273" s="30"/>
-      <c r="F273" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="G273" s="59" t="s">
-        <v>288</v>
+      <c r="F273" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="G273" s="57" t="s">
+        <v>291</v>
       </c>
       <c r="H273" s="30"/>
     </row>
     <row r="274">
       <c r="A274" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="B274" s="57" t="s">
-        <v>290</v>
-      </c>
-      <c r="C274" s="57"/>
-      <c r="D274" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="B274" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="C274" s="55"/>
+      <c r="D274" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E274" s="57" t="s">
+      <c r="E274" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F274" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G274" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H274" s="41"/>
     </row>
@@ -6176,10 +6243,10 @@
       <c r="D275" s="25"/>
       <c r="E275" s="25"/>
       <c r="F275" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G275" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H275" s="25"/>
     </row>
@@ -6190,10 +6257,10 @@
       <c r="D276" s="25"/>
       <c r="E276" s="25"/>
       <c r="F276" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G276" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H276" s="25"/>
     </row>
@@ -6203,11 +6270,11 @@
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
       <c r="E277" s="25"/>
-      <c r="F277" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="G277" s="59" t="s">
-        <v>142</v>
+      <c r="F277" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="G277" s="57" t="s">
+        <v>145</v>
       </c>
       <c r="H277" s="25"/>
     </row>
@@ -6217,11 +6284,11 @@
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
       <c r="E278" s="25"/>
-      <c r="F278" s="64" t="s">
-        <v>291</v>
+      <c r="F278" s="62" t="s">
+        <v>294</v>
       </c>
       <c r="G278" s="29" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H278" s="25"/>
     </row>
@@ -6231,33 +6298,33 @@
       <c r="C279" s="30"/>
       <c r="D279" s="30"/>
       <c r="E279" s="30"/>
-      <c r="F279" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="G279" s="59" t="s">
-        <v>293</v>
+      <c r="F279" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="G279" s="57" t="s">
+        <v>296</v>
       </c>
       <c r="H279" s="30"/>
     </row>
     <row r="280">
       <c r="A280" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="B280" s="57" t="s">
-        <v>295</v>
-      </c>
-      <c r="C280" s="57"/>
-      <c r="D280" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="B280" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="C280" s="55"/>
+      <c r="D280" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E280" s="57" t="s">
+      <c r="E280" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F280" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G280" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H280" s="41"/>
     </row>
@@ -6268,10 +6335,10 @@
       <c r="D281" s="25"/>
       <c r="E281" s="25"/>
       <c r="F281" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G281" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H281" s="25"/>
     </row>
@@ -6282,10 +6349,10 @@
       <c r="D282" s="25"/>
       <c r="E282" s="25"/>
       <c r="F282" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G282" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H282" s="25"/>
     </row>
@@ -6295,11 +6362,11 @@
       <c r="C283" s="25"/>
       <c r="D283" s="25"/>
       <c r="E283" s="25"/>
-      <c r="F283" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="G283" s="59" t="s">
-        <v>142</v>
+      <c r="F283" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="G283" s="57" t="s">
+        <v>145</v>
       </c>
       <c r="H283" s="25"/>
     </row>
@@ -6309,11 +6376,11 @@
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
       <c r="E284" s="25"/>
-      <c r="F284" s="64" t="s">
-        <v>296</v>
+      <c r="F284" s="62" t="s">
+        <v>299</v>
       </c>
       <c r="G284" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H284" s="25"/>
     </row>
@@ -6323,33 +6390,33 @@
       <c r="C285" s="30"/>
       <c r="D285" s="30"/>
       <c r="E285" s="30"/>
-      <c r="F285" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="G285" s="59" t="s">
-        <v>298</v>
+      <c r="F285" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="G285" s="57" t="s">
+        <v>301</v>
       </c>
       <c r="H285" s="30"/>
     </row>
     <row r="286">
       <c r="A286" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="B286" s="57" t="s">
-        <v>300</v>
-      </c>
-      <c r="C286" s="57"/>
-      <c r="D286" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="B286" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="C286" s="55"/>
+      <c r="D286" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E286" s="57" t="s">
+      <c r="E286" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F286" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G286" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H286" s="41"/>
     </row>
@@ -6360,10 +6427,10 @@
       <c r="D287" s="25"/>
       <c r="E287" s="25"/>
       <c r="F287" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G287" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H287" s="25"/>
     </row>
@@ -6374,10 +6441,10 @@
       <c r="D288" s="25"/>
       <c r="E288" s="25"/>
       <c r="F288" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G288" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H288" s="25"/>
     </row>
@@ -6387,11 +6454,11 @@
       <c r="C289" s="25"/>
       <c r="D289" s="25"/>
       <c r="E289" s="25"/>
-      <c r="F289" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="G289" s="59" t="s">
-        <v>242</v>
+      <c r="F289" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G289" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="H289" s="25"/>
     </row>
@@ -6401,11 +6468,11 @@
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="25"/>
-      <c r="F290" s="64" t="s">
-        <v>286</v>
+      <c r="F290" s="62" t="s">
+        <v>289</v>
       </c>
       <c r="G290" s="29" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H290" s="25"/>
     </row>
@@ -6415,33 +6482,33 @@
       <c r="C291" s="30"/>
       <c r="D291" s="30"/>
       <c r="E291" s="30"/>
-      <c r="F291" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="G291" s="59" t="s">
-        <v>301</v>
+      <c r="F291" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="G291" s="57" t="s">
+        <v>304</v>
       </c>
       <c r="H291" s="30"/>
     </row>
     <row r="292">
       <c r="A292" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="B292" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="C292" s="57"/>
-      <c r="D292" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="B292" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="C292" s="55"/>
+      <c r="D292" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E292" s="57" t="s">
+      <c r="E292" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F292" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G292" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H292" s="41"/>
     </row>
@@ -6452,10 +6519,10 @@
       <c r="D293" s="25"/>
       <c r="E293" s="25"/>
       <c r="F293" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G293" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H293" s="25"/>
     </row>
@@ -6466,10 +6533,10 @@
       <c r="D294" s="25"/>
       <c r="E294" s="25"/>
       <c r="F294" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G294" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H294" s="25"/>
     </row>
@@ -6479,11 +6546,11 @@
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
       <c r="E295" s="25"/>
-      <c r="F295" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="G295" s="59" t="s">
-        <v>242</v>
+      <c r="F295" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G295" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="H295" s="25"/>
     </row>
@@ -6493,11 +6560,11 @@
       <c r="C296" s="25"/>
       <c r="D296" s="25"/>
       <c r="E296" s="25"/>
-      <c r="F296" s="64" t="s">
-        <v>304</v>
+      <c r="F296" s="62" t="s">
+        <v>307</v>
       </c>
       <c r="G296" s="29" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H296" s="25"/>
     </row>
@@ -6507,33 +6574,33 @@
       <c r="C297" s="30"/>
       <c r="D297" s="30"/>
       <c r="E297" s="30"/>
-      <c r="F297" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="G297" s="59" t="s">
-        <v>305</v>
+      <c r="F297" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="G297" s="57" t="s">
+        <v>308</v>
       </c>
       <c r="H297" s="30"/>
     </row>
     <row r="298">
       <c r="A298" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="B298" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="C298" s="57"/>
-      <c r="D298" s="61" t="s">
+        <v>309</v>
+      </c>
+      <c r="B298" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="C298" s="55"/>
+      <c r="D298" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E298" s="57" t="s">
+      <c r="E298" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F298" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G298" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H298" s="41"/>
     </row>
@@ -6544,10 +6611,10 @@
       <c r="D299" s="25"/>
       <c r="E299" s="25"/>
       <c r="F299" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G299" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H299" s="25"/>
     </row>
@@ -6558,10 +6625,10 @@
       <c r="D300" s="25"/>
       <c r="E300" s="25"/>
       <c r="F300" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G300" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H300" s="25"/>
     </row>
@@ -6571,11 +6638,11 @@
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
       <c r="E301" s="25"/>
-      <c r="F301" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="G301" s="59" t="s">
-        <v>242</v>
+      <c r="F301" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G301" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="H301" s="25"/>
     </row>
@@ -6585,11 +6652,11 @@
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
       <c r="E302" s="25"/>
-      <c r="F302" s="64" t="s">
-        <v>308</v>
+      <c r="F302" s="62" t="s">
+        <v>311</v>
       </c>
       <c r="G302" s="29" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H302" s="25"/>
     </row>
@@ -6599,22 +6666,22 @@
       <c r="C303" s="30"/>
       <c r="D303" s="30"/>
       <c r="E303" s="30"/>
-      <c r="F303" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="G303" s="59" t="s">
-        <v>309</v>
+      <c r="F303" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="G303" s="57" t="s">
+        <v>312</v>
       </c>
       <c r="H303" s="30"/>
     </row>
     <row r="304">
       <c r="A304" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="B304" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="C304" s="57"/>
+        <v>313</v>
+      </c>
+      <c r="B304" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="C304" s="55"/>
       <c r="D304" s="41" t="s">
         <v>10</v>
       </c>
@@ -6622,10 +6689,10 @@
         <v>26</v>
       </c>
       <c r="F304" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G304" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H304" s="41"/>
     </row>
@@ -6636,10 +6703,10 @@
       <c r="D305" s="25"/>
       <c r="E305" s="25"/>
       <c r="F305" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G305" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H305" s="25"/>
     </row>
@@ -6649,20 +6716,20 @@
       <c r="C306" s="30"/>
       <c r="D306" s="30"/>
       <c r="E306" s="30"/>
-      <c r="F306" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G306" s="59" t="s">
-        <v>313</v>
+      <c r="F306" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G306" s="57" t="s">
+        <v>316</v>
       </c>
       <c r="H306" s="30"/>
     </row>
     <row r="307">
       <c r="A307" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="B307" s="57" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="B307" s="55" t="s">
+        <v>318</v>
       </c>
       <c r="C307" s="19"/>
       <c r="D307" s="41" t="s">
@@ -6672,10 +6739,10 @@
         <v>26</v>
       </c>
       <c r="F307" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G307" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H307" s="41"/>
     </row>
@@ -6686,10 +6753,10 @@
       <c r="D308" s="25"/>
       <c r="E308" s="25"/>
       <c r="F308" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G308" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H308" s="25"/>
     </row>
@@ -6699,11 +6766,11 @@
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
       <c r="E309" s="25"/>
-      <c r="F309" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G309" s="59" t="s">
-        <v>313</v>
+      <c r="F309" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G309" s="57" t="s">
+        <v>316</v>
       </c>
       <c r="H309" s="25"/>
     </row>
@@ -6713,11 +6780,11 @@
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
       <c r="E310" s="25"/>
-      <c r="F310" s="64" t="s">
-        <v>316</v>
+      <c r="F310" s="62" t="s">
+        <v>319</v>
       </c>
       <c r="G310" s="29" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H310" s="25"/>
     </row>
@@ -6728,10 +6795,10 @@
       <c r="D311" s="25"/>
       <c r="E311" s="25"/>
       <c r="F311" s="29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G311" s="29" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H311" s="25"/>
     </row>
@@ -6742,10 +6809,10 @@
       <c r="D312" s="25"/>
       <c r="E312" s="25"/>
       <c r="F312" s="29" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G312" s="29" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H312" s="25"/>
     </row>
@@ -6756,10 +6823,10 @@
       <c r="D313" s="25"/>
       <c r="E313" s="25"/>
       <c r="F313" s="29" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G313" s="29" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H313" s="25"/>
     </row>
@@ -6769,11 +6836,11 @@
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
       <c r="E314" s="25"/>
-      <c r="F314" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="G314" s="64" t="s">
-        <v>325</v>
+      <c r="F314" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G314" s="62" t="s">
+        <v>328</v>
       </c>
       <c r="H314" s="25"/>
     </row>
@@ -6784,19 +6851,19 @@
       <c r="D315" s="30"/>
       <c r="E315" s="30"/>
       <c r="F315" s="29" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G315" s="29" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H315" s="30"/>
     </row>
     <row r="316">
       <c r="A316" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="B316" s="57" t="s">
-        <v>329</v>
+        <v>331</v>
+      </c>
+      <c r="B316" s="55" t="s">
+        <v>332</v>
       </c>
       <c r="C316" s="19"/>
       <c r="D316" s="41" t="s">
@@ -6806,10 +6873,10 @@
         <v>26</v>
       </c>
       <c r="F316" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G316" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H316" s="41"/>
     </row>
@@ -6820,10 +6887,10 @@
       <c r="D317" s="25"/>
       <c r="E317" s="25"/>
       <c r="F317" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G317" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H317" s="25"/>
     </row>
@@ -6833,11 +6900,11 @@
       <c r="C318" s="25"/>
       <c r="D318" s="25"/>
       <c r="E318" s="25"/>
-      <c r="F318" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G318" s="59" t="s">
-        <v>313</v>
+      <c r="F318" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G318" s="57" t="s">
+        <v>316</v>
       </c>
       <c r="H318" s="25"/>
     </row>
@@ -6847,11 +6914,11 @@
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
       <c r="E319" s="25"/>
-      <c r="F319" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="G319" s="59" t="s">
-        <v>242</v>
+      <c r="F319" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G319" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="H319" s="25"/>
     </row>
@@ -6862,10 +6929,10 @@
       <c r="D320" s="25"/>
       <c r="E320" s="25"/>
       <c r="F320" s="29" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G320" s="29" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H320" s="25"/>
     </row>
@@ -6876,10 +6943,10 @@
       <c r="D321" s="25"/>
       <c r="E321" s="25"/>
       <c r="F321" s="29" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G321" s="29" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H321" s="25"/>
     </row>
@@ -6890,10 +6957,10 @@
       <c r="D322" s="25"/>
       <c r="E322" s="25"/>
       <c r="F322" s="29" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G322" s="29" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H322" s="25"/>
     </row>
@@ -6903,11 +6970,11 @@
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
       <c r="E323" s="25"/>
-      <c r="F323" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="G323" s="64" t="s">
-        <v>325</v>
+      <c r="F323" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G323" s="62" t="s">
+        <v>328</v>
       </c>
       <c r="H323" s="25"/>
     </row>
@@ -6918,19 +6985,19 @@
       <c r="D324" s="30"/>
       <c r="E324" s="30"/>
       <c r="F324" s="29" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G324" s="29" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H324" s="30"/>
     </row>
     <row r="325">
       <c r="A325" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="B325" s="57" t="s">
-        <v>333</v>
+        <v>335</v>
+      </c>
+      <c r="B325" s="55" t="s">
+        <v>336</v>
       </c>
       <c r="C325" s="19"/>
       <c r="D325" s="41" t="s">
@@ -6940,10 +7007,10 @@
         <v>26</v>
       </c>
       <c r="F325" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G325" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H325" s="41"/>
     </row>
@@ -6954,10 +7021,10 @@
       <c r="D326" s="25"/>
       <c r="E326" s="25"/>
       <c r="F326" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G326" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H326" s="25"/>
     </row>
@@ -6967,11 +7034,11 @@
       <c r="C327" s="25"/>
       <c r="D327" s="25"/>
       <c r="E327" s="25"/>
-      <c r="F327" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G327" s="59" t="s">
-        <v>313</v>
+      <c r="F327" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G327" s="57" t="s">
+        <v>316</v>
       </c>
       <c r="H327" s="25"/>
     </row>
@@ -6981,11 +7048,11 @@
       <c r="C328" s="25"/>
       <c r="D328" s="25"/>
       <c r="E328" s="25"/>
-      <c r="F328" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="G328" s="59" t="s">
-        <v>242</v>
+      <c r="F328" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G328" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="H328" s="25"/>
     </row>
@@ -6996,10 +7063,10 @@
       <c r="D329" s="25"/>
       <c r="E329" s="25"/>
       <c r="F329" s="29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G329" s="29" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H329" s="25"/>
     </row>
@@ -7010,10 +7077,10 @@
       <c r="D330" s="25"/>
       <c r="E330" s="25"/>
       <c r="F330" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G330" s="29" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H330" s="25"/>
     </row>
@@ -7024,10 +7091,10 @@
       <c r="D331" s="25"/>
       <c r="E331" s="25"/>
       <c r="F331" s="29" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G331" s="29" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H331" s="25"/>
     </row>
@@ -7037,11 +7104,11 @@
       <c r="C332" s="25"/>
       <c r="D332" s="25"/>
       <c r="E332" s="25"/>
-      <c r="F332" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="G332" s="64" t="s">
-        <v>325</v>
+      <c r="F332" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G332" s="62" t="s">
+        <v>328</v>
       </c>
       <c r="H332" s="25"/>
     </row>
@@ -7052,19 +7119,19 @@
       <c r="D333" s="30"/>
       <c r="E333" s="30"/>
       <c r="F333" s="29" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G333" s="29" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H333" s="30"/>
     </row>
     <row r="334">
       <c r="A334" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="B334" s="57" t="s">
-        <v>337</v>
+        <v>339</v>
+      </c>
+      <c r="B334" s="55" t="s">
+        <v>340</v>
       </c>
       <c r="C334" s="19"/>
       <c r="D334" s="41" t="s">
@@ -7074,10 +7141,10 @@
         <v>26</v>
       </c>
       <c r="F334" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G334" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H334" s="41"/>
     </row>
@@ -7088,10 +7155,10 @@
       <c r="D335" s="25"/>
       <c r="E335" s="25"/>
       <c r="F335" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G335" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H335" s="25"/>
     </row>
@@ -7101,11 +7168,11 @@
       <c r="C336" s="25"/>
       <c r="D336" s="25"/>
       <c r="E336" s="25"/>
-      <c r="F336" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G336" s="59" t="s">
-        <v>313</v>
+      <c r="F336" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G336" s="57" t="s">
+        <v>316</v>
       </c>
       <c r="H336" s="25"/>
     </row>
@@ -7115,11 +7182,11 @@
       <c r="C337" s="25"/>
       <c r="D337" s="25"/>
       <c r="E337" s="25"/>
-      <c r="F337" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="G337" s="59" t="s">
-        <v>242</v>
+      <c r="F337" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G337" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="H337" s="25"/>
     </row>
@@ -7130,10 +7197,10 @@
       <c r="D338" s="25"/>
       <c r="E338" s="25"/>
       <c r="F338" s="29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G338" s="29" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H338" s="25"/>
     </row>
@@ -7144,10 +7211,10 @@
       <c r="D339" s="25"/>
       <c r="E339" s="25"/>
       <c r="F339" s="29" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G339" s="29" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H339" s="25"/>
     </row>
@@ -7158,10 +7225,10 @@
       <c r="D340" s="25"/>
       <c r="E340" s="25"/>
       <c r="F340" s="29" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G340" s="29" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H340" s="25"/>
     </row>
@@ -7171,11 +7238,11 @@
       <c r="C341" s="25"/>
       <c r="D341" s="25"/>
       <c r="E341" s="25"/>
-      <c r="F341" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="G341" s="64" t="s">
-        <v>325</v>
+      <c r="F341" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G341" s="62" t="s">
+        <v>328</v>
       </c>
       <c r="H341" s="25"/>
     </row>
@@ -7186,19 +7253,19 @@
       <c r="D342" s="30"/>
       <c r="E342" s="30"/>
       <c r="F342" s="29" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G342" s="29" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H342" s="30"/>
     </row>
     <row r="343">
       <c r="A343" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="B343" s="57" t="s">
-        <v>341</v>
+        <v>343</v>
+      </c>
+      <c r="B343" s="55" t="s">
+        <v>344</v>
       </c>
       <c r="C343" s="19"/>
       <c r="D343" s="41" t="s">
@@ -7208,10 +7275,10 @@
         <v>26</v>
       </c>
       <c r="F343" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G343" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H343" s="41"/>
     </row>
@@ -7222,10 +7289,10 @@
       <c r="D344" s="25"/>
       <c r="E344" s="25"/>
       <c r="F344" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G344" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H344" s="25"/>
     </row>
@@ -7235,11 +7302,11 @@
       <c r="C345" s="25"/>
       <c r="D345" s="25"/>
       <c r="E345" s="25"/>
-      <c r="F345" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G345" s="59" t="s">
-        <v>313</v>
+      <c r="F345" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G345" s="57" t="s">
+        <v>316</v>
       </c>
       <c r="H345" s="25"/>
     </row>
@@ -7249,11 +7316,11 @@
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
       <c r="E346" s="25"/>
-      <c r="F346" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="G346" s="59" t="s">
-        <v>242</v>
+      <c r="F346" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G346" s="57" t="s">
+        <v>245</v>
       </c>
       <c r="H346" s="25"/>
     </row>
@@ -7264,10 +7331,10 @@
       <c r="D347" s="25"/>
       <c r="E347" s="25"/>
       <c r="F347" s="29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G347" s="29" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H347" s="25"/>
     </row>
@@ -7278,10 +7345,10 @@
       <c r="D348" s="25"/>
       <c r="E348" s="25"/>
       <c r="F348" s="29" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G348" s="29" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H348" s="25"/>
     </row>
@@ -7292,10 +7359,10 @@
       <c r="D349" s="25"/>
       <c r="E349" s="25"/>
       <c r="F349" s="29" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G349" s="29" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H349" s="25"/>
     </row>
@@ -7305,11 +7372,11 @@
       <c r="C350" s="25"/>
       <c r="D350" s="25"/>
       <c r="E350" s="25"/>
-      <c r="F350" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="G350" s="64" t="s">
-        <v>343</v>
+      <c r="F350" s="62" t="s">
+        <v>345</v>
+      </c>
+      <c r="G350" s="62" t="s">
+        <v>346</v>
       </c>
       <c r="H350" s="25"/>
     </row>
@@ -7320,21 +7387,21 @@
       <c r="D351" s="30"/>
       <c r="E351" s="30"/>
       <c r="F351" s="29" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G351" s="29" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H351" s="30"/>
     </row>
     <row r="352">
       <c r="A352" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="B352" s="57" t="s">
-        <v>345</v>
-      </c>
-      <c r="C352" s="57"/>
+        <v>347</v>
+      </c>
+      <c r="B352" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="C352" s="55"/>
       <c r="D352" s="41" t="s">
         <v>10</v>
       </c>
@@ -7342,10 +7409,10 @@
         <v>26</v>
       </c>
       <c r="F352" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G352" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H352" s="41"/>
     </row>
@@ -7356,10 +7423,10 @@
       <c r="D353" s="25"/>
       <c r="E353" s="25"/>
       <c r="F353" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G353" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H353" s="25"/>
     </row>
@@ -7369,11 +7436,11 @@
       <c r="C354" s="25"/>
       <c r="D354" s="25"/>
       <c r="E354" s="25"/>
-      <c r="F354" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G354" s="59" t="s">
-        <v>313</v>
+      <c r="F354" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G354" s="57" t="s">
+        <v>316</v>
       </c>
       <c r="H354" s="25"/>
     </row>
@@ -7383,11 +7450,11 @@
       <c r="C355" s="25"/>
       <c r="D355" s="25"/>
       <c r="E355" s="25"/>
-      <c r="F355" s="64" t="s">
-        <v>346</v>
+      <c r="F355" s="62" t="s">
+        <v>349</v>
       </c>
       <c r="G355" s="29" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H355" s="25"/>
     </row>
@@ -7398,10 +7465,10 @@
       <c r="D356" s="25"/>
       <c r="E356" s="25"/>
       <c r="F356" s="29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G356" s="29" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H356" s="25"/>
     </row>
@@ -7412,10 +7479,10 @@
       <c r="D357" s="25"/>
       <c r="E357" s="25"/>
       <c r="F357" s="29" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G357" s="29" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H357" s="25"/>
     </row>
@@ -7426,10 +7493,10 @@
       <c r="D358" s="25"/>
       <c r="E358" s="25"/>
       <c r="F358" s="29" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G358" s="29" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H358" s="25"/>
     </row>
@@ -7439,11 +7506,11 @@
       <c r="C359" s="25"/>
       <c r="D359" s="25"/>
       <c r="E359" s="25"/>
-      <c r="F359" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="G359" s="64" t="s">
-        <v>325</v>
+      <c r="F359" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G359" s="62" t="s">
+        <v>328</v>
       </c>
       <c r="H359" s="25"/>
     </row>
@@ -7454,21 +7521,21 @@
       <c r="D360" s="30"/>
       <c r="E360" s="30"/>
       <c r="F360" s="29" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G360" s="29" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H360" s="30"/>
     </row>
     <row r="361">
       <c r="A361" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="B361" s="57" t="s">
-        <v>350</v>
-      </c>
-      <c r="C361" s="57"/>
+        <v>352</v>
+      </c>
+      <c r="B361" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="C361" s="55"/>
       <c r="D361" s="41" t="s">
         <v>10</v>
       </c>
@@ -7476,10 +7543,10 @@
         <v>26</v>
       </c>
       <c r="F361" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G361" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H361" s="41"/>
     </row>
@@ -7490,10 +7557,10 @@
       <c r="D362" s="25"/>
       <c r="E362" s="25"/>
       <c r="F362" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G362" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H362" s="25"/>
     </row>
@@ -7503,11 +7570,11 @@
       <c r="C363" s="25"/>
       <c r="D363" s="25"/>
       <c r="E363" s="25"/>
-      <c r="F363" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G363" s="59" t="s">
-        <v>313</v>
+      <c r="F363" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G363" s="57" t="s">
+        <v>316</v>
       </c>
       <c r="H363" s="25"/>
     </row>
@@ -7517,11 +7584,11 @@
       <c r="C364" s="25"/>
       <c r="D364" s="25"/>
       <c r="E364" s="25"/>
-      <c r="F364" s="64" t="s">
-        <v>316</v>
+      <c r="F364" s="62" t="s">
+        <v>319</v>
       </c>
       <c r="G364" s="29" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H364" s="25"/>
     </row>
@@ -7532,10 +7599,10 @@
       <c r="D365" s="25"/>
       <c r="E365" s="25"/>
       <c r="F365" s="29" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G365" s="29" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H365" s="25"/>
     </row>
@@ -7546,10 +7613,10 @@
       <c r="D366" s="25"/>
       <c r="E366" s="25"/>
       <c r="F366" s="29" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G366" s="29" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H366" s="25"/>
     </row>
@@ -7560,10 +7627,10 @@
       <c r="D367" s="25"/>
       <c r="E367" s="25"/>
       <c r="F367" s="29" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G367" s="29" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H367" s="25"/>
     </row>
@@ -7573,11 +7640,11 @@
       <c r="C368" s="25"/>
       <c r="D368" s="25"/>
       <c r="E368" s="25"/>
-      <c r="F368" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="G368" s="64" t="s">
-        <v>343</v>
+      <c r="F368" s="62" t="s">
+        <v>345</v>
+      </c>
+      <c r="G368" s="62" t="s">
+        <v>346</v>
       </c>
       <c r="H368" s="25"/>
     </row>
@@ -7588,21 +7655,21 @@
       <c r="D369" s="30"/>
       <c r="E369" s="30"/>
       <c r="F369" s="29" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G369" s="29" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H369" s="30"/>
     </row>
     <row r="370">
       <c r="A370" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="B370" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="C370" s="57"/>
+        <v>354</v>
+      </c>
+      <c r="B370" s="55" t="s">
+        <v>355</v>
+      </c>
+      <c r="C370" s="55"/>
       <c r="D370" s="41" t="s">
         <v>10</v>
       </c>
@@ -7610,10 +7677,10 @@
         <v>26</v>
       </c>
       <c r="F370" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G370" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H370" s="41"/>
     </row>
@@ -7624,10 +7691,10 @@
       <c r="D371" s="25"/>
       <c r="E371" s="25"/>
       <c r="F371" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G371" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H371" s="25"/>
     </row>
@@ -7637,11 +7704,11 @@
       <c r="C372" s="25"/>
       <c r="D372" s="25"/>
       <c r="E372" s="25"/>
-      <c r="F372" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G372" s="59" t="s">
-        <v>313</v>
+      <c r="F372" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G372" s="57" t="s">
+        <v>316</v>
       </c>
       <c r="H372" s="25"/>
     </row>
@@ -7651,11 +7718,11 @@
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
       <c r="E373" s="25"/>
-      <c r="F373" s="64" t="s">
-        <v>346</v>
+      <c r="F373" s="62" t="s">
+        <v>349</v>
       </c>
       <c r="G373" s="29" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H373" s="25"/>
     </row>
@@ -7666,10 +7733,10 @@
       <c r="D374" s="25"/>
       <c r="E374" s="25"/>
       <c r="F374" s="29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G374" s="29" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H374" s="25"/>
     </row>
@@ -7680,10 +7747,10 @@
       <c r="D375" s="25"/>
       <c r="E375" s="25"/>
       <c r="F375" s="29" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G375" s="29" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H375" s="25"/>
     </row>
@@ -7694,10 +7761,10 @@
       <c r="D376" s="25"/>
       <c r="E376" s="25"/>
       <c r="F376" s="29" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G376" s="29" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H376" s="25"/>
     </row>
@@ -7707,11 +7774,11 @@
       <c r="C377" s="25"/>
       <c r="D377" s="25"/>
       <c r="E377" s="25"/>
-      <c r="F377" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="G377" s="64" t="s">
-        <v>325</v>
+      <c r="F377" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G377" s="62" t="s">
+        <v>328</v>
       </c>
       <c r="H377" s="25"/>
     </row>
@@ -7722,10 +7789,10 @@
       <c r="D378" s="25"/>
       <c r="E378" s="25"/>
       <c r="F378" s="29" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G378" s="29" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H378" s="25"/>
     </row>
@@ -7736,19 +7803,19 @@
       <c r="D379" s="30"/>
       <c r="E379" s="30"/>
       <c r="F379" s="29" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G379" s="29" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H379" s="30"/>
     </row>
     <row r="380">
       <c r="A380" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="B380" s="57" t="s">
-        <v>357</v>
+        <v>359</v>
+      </c>
+      <c r="B380" s="55" t="s">
+        <v>360</v>
       </c>
       <c r="C380" s="19"/>
       <c r="D380" s="41" t="s">
@@ -7758,10 +7825,10 @@
         <v>26</v>
       </c>
       <c r="F380" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G380" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H380" s="41"/>
     </row>
@@ -7772,10 +7839,10 @@
       <c r="D381" s="25"/>
       <c r="E381" s="25"/>
       <c r="F381" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G381" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H381" s="25"/>
     </row>
@@ -7785,11 +7852,11 @@
       <c r="C382" s="25"/>
       <c r="D382" s="25"/>
       <c r="E382" s="25"/>
-      <c r="F382" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G382" s="59" t="s">
-        <v>313</v>
+      <c r="F382" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G382" s="57" t="s">
+        <v>316</v>
       </c>
       <c r="H382" s="25"/>
     </row>
@@ -7799,11 +7866,11 @@
       <c r="C383" s="25"/>
       <c r="D383" s="25"/>
       <c r="E383" s="25"/>
-      <c r="F383" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="G383" s="59" t="s">
-        <v>359</v>
+      <c r="F383" s="60" t="s">
+        <v>361</v>
+      </c>
+      <c r="G383" s="57" t="s">
+        <v>362</v>
       </c>
       <c r="H383" s="25"/>
     </row>
@@ -7814,10 +7881,10 @@
       <c r="D384" s="25"/>
       <c r="E384" s="25"/>
       <c r="F384" s="29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G384" s="29" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H384" s="25"/>
     </row>
@@ -7828,10 +7895,10 @@
       <c r="D385" s="25"/>
       <c r="E385" s="25"/>
       <c r="F385" s="29" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G385" s="29" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H385" s="25"/>
     </row>
@@ -7842,10 +7909,10 @@
       <c r="D386" s="25"/>
       <c r="E386" s="25"/>
       <c r="F386" s="29" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G386" s="29" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H386" s="25"/>
     </row>
@@ -7855,11 +7922,11 @@
       <c r="C387" s="25"/>
       <c r="D387" s="25"/>
       <c r="E387" s="25"/>
-      <c r="F387" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="G387" s="64" t="s">
-        <v>325</v>
+      <c r="F387" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G387" s="62" t="s">
+        <v>328</v>
       </c>
       <c r="H387" s="25"/>
     </row>
@@ -7870,19 +7937,19 @@
       <c r="D388" s="30"/>
       <c r="E388" s="30"/>
       <c r="F388" s="29" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G388" s="29" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H388" s="30"/>
     </row>
     <row r="389">
       <c r="A389" s="40" t="s">
-        <v>361</v>
-      </c>
-      <c r="B389" s="57" t="s">
-        <v>362</v>
+        <v>364</v>
+      </c>
+      <c r="B389" s="55" t="s">
+        <v>365</v>
       </c>
       <c r="C389" s="19"/>
       <c r="D389" s="41" t="s">
@@ -7892,10 +7959,10 @@
         <v>26</v>
       </c>
       <c r="F389" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G389" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H389" s="41"/>
     </row>
@@ -7906,10 +7973,10 @@
       <c r="D390" s="25"/>
       <c r="E390" s="25"/>
       <c r="F390" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G390" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H390" s="25"/>
     </row>
@@ -7919,11 +7986,11 @@
       <c r="C391" s="25"/>
       <c r="D391" s="25"/>
       <c r="E391" s="25"/>
-      <c r="F391" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G391" s="59" t="s">
-        <v>313</v>
+      <c r="F391" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G391" s="57" t="s">
+        <v>316</v>
       </c>
       <c r="H391" s="25"/>
     </row>
@@ -7933,11 +8000,11 @@
       <c r="C392" s="25"/>
       <c r="D392" s="25"/>
       <c r="E392" s="25"/>
-      <c r="F392" s="62" t="s">
-        <v>363</v>
-      </c>
-      <c r="G392" s="59" t="s">
-        <v>364</v>
+      <c r="F392" s="60" t="s">
+        <v>366</v>
+      </c>
+      <c r="G392" s="57" t="s">
+        <v>367</v>
       </c>
       <c r="H392" s="25"/>
     </row>
@@ -7948,10 +8015,10 @@
       <c r="D393" s="25"/>
       <c r="E393" s="25"/>
       <c r="F393" s="29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G393" s="29" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H393" s="25"/>
     </row>
@@ -7962,10 +8029,10 @@
       <c r="D394" s="25"/>
       <c r="E394" s="25"/>
       <c r="F394" s="29" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G394" s="29" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H394" s="25"/>
     </row>
@@ -7976,10 +8043,10 @@
       <c r="D395" s="25"/>
       <c r="E395" s="25"/>
       <c r="F395" s="29" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G395" s="29" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H395" s="25"/>
     </row>
@@ -7989,11 +8056,11 @@
       <c r="C396" s="25"/>
       <c r="D396" s="25"/>
       <c r="E396" s="25"/>
-      <c r="F396" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="G396" s="64" t="s">
-        <v>325</v>
+      <c r="F396" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G396" s="62" t="s">
+        <v>328</v>
       </c>
       <c r="H396" s="25"/>
     </row>
@@ -8004,19 +8071,19 @@
       <c r="D397" s="30"/>
       <c r="E397" s="30"/>
       <c r="F397" s="29" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G397" s="29" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H397" s="30"/>
     </row>
     <row r="398">
       <c r="A398" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="B398" s="57" t="s">
-        <v>366</v>
+        <v>368</v>
+      </c>
+      <c r="B398" s="55" t="s">
+        <v>369</v>
       </c>
       <c r="C398" s="19"/>
       <c r="D398" s="41" t="s">
@@ -8026,10 +8093,10 @@
         <v>26</v>
       </c>
       <c r="F398" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G398" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H398" s="41"/>
     </row>
@@ -8040,10 +8107,10 @@
       <c r="D399" s="25"/>
       <c r="E399" s="25"/>
       <c r="F399" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G399" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H399" s="25"/>
     </row>
@@ -8053,11 +8120,11 @@
       <c r="C400" s="25"/>
       <c r="D400" s="25"/>
       <c r="E400" s="25"/>
-      <c r="F400" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G400" s="59" t="s">
-        <v>313</v>
+      <c r="F400" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G400" s="57" t="s">
+        <v>316</v>
       </c>
       <c r="H400" s="25"/>
     </row>
@@ -8067,11 +8134,11 @@
       <c r="C401" s="25"/>
       <c r="D401" s="25"/>
       <c r="E401" s="25"/>
-      <c r="F401" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="G401" s="59" t="s">
-        <v>368</v>
+      <c r="F401" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="G401" s="57" t="s">
+        <v>371</v>
       </c>
       <c r="H401" s="25"/>
     </row>
@@ -8082,10 +8149,10 @@
       <c r="D402" s="25"/>
       <c r="E402" s="25"/>
       <c r="F402" s="29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G402" s="29" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H402" s="25"/>
     </row>
@@ -8096,10 +8163,10 @@
       <c r="D403" s="25"/>
       <c r="E403" s="25"/>
       <c r="F403" s="29" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G403" s="29" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H403" s="25"/>
     </row>
@@ -8110,10 +8177,10 @@
       <c r="D404" s="25"/>
       <c r="E404" s="25"/>
       <c r="F404" s="29" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G404" s="29" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H404" s="25"/>
     </row>
@@ -8123,11 +8190,11 @@
       <c r="C405" s="25"/>
       <c r="D405" s="25"/>
       <c r="E405" s="25"/>
-      <c r="F405" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="G405" s="64" t="s">
-        <v>325</v>
+      <c r="F405" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G405" s="62" t="s">
+        <v>328</v>
       </c>
       <c r="H405" s="25"/>
     </row>
@@ -8138,19 +8205,19 @@
       <c r="D406" s="30"/>
       <c r="E406" s="30"/>
       <c r="F406" s="29" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G406" s="29" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H406" s="30"/>
     </row>
     <row r="407">
       <c r="A407" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="B407" s="57" t="s">
-        <v>370</v>
+        <v>372</v>
+      </c>
+      <c r="B407" s="55" t="s">
+        <v>373</v>
       </c>
       <c r="C407" s="19"/>
       <c r="D407" s="41" t="s">
@@ -8160,10 +8227,10 @@
         <v>26</v>
       </c>
       <c r="F407" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G407" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H407" s="41"/>
     </row>
@@ -8174,10 +8241,10 @@
       <c r="D408" s="25"/>
       <c r="E408" s="25"/>
       <c r="F408" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G408" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H408" s="25"/>
     </row>
@@ -8187,11 +8254,11 @@
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
       <c r="E409" s="25"/>
-      <c r="F409" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G409" s="59" t="s">
-        <v>313</v>
+      <c r="F409" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G409" s="57" t="s">
+        <v>316</v>
       </c>
       <c r="H409" s="25"/>
     </row>
@@ -8201,11 +8268,11 @@
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
       <c r="E410" s="25"/>
-      <c r="F410" s="64" t="s">
-        <v>346</v>
+      <c r="F410" s="62" t="s">
+        <v>349</v>
       </c>
       <c r="G410" s="29" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H410" s="25"/>
     </row>
@@ -8216,10 +8283,10 @@
       <c r="D411" s="25"/>
       <c r="E411" s="25"/>
       <c r="F411" s="29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G411" s="29" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H411" s="25"/>
     </row>
@@ -8230,10 +8297,10 @@
       <c r="D412" s="25"/>
       <c r="E412" s="25"/>
       <c r="F412" s="29" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G412" s="29" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H412" s="25"/>
     </row>
@@ -8244,10 +8311,10 @@
       <c r="D413" s="25"/>
       <c r="E413" s="25"/>
       <c r="F413" s="29" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G413" s="29" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H413" s="25"/>
     </row>
@@ -8257,11 +8324,11 @@
       <c r="C414" s="25"/>
       <c r="D414" s="25"/>
       <c r="E414" s="25"/>
-      <c r="F414" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="G414" s="64" t="s">
-        <v>325</v>
+      <c r="F414" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G414" s="62" t="s">
+        <v>328</v>
       </c>
       <c r="H414" s="25"/>
     </row>
@@ -8272,19 +8339,19 @@
       <c r="D415" s="30"/>
       <c r="E415" s="30"/>
       <c r="F415" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="G415" s="65" t="s">
-        <v>348</v>
+        <v>329</v>
+      </c>
+      <c r="G415" s="63" t="s">
+        <v>351</v>
       </c>
       <c r="H415" s="30"/>
     </row>
     <row r="416">
       <c r="A416" s="40" t="s">
-        <v>372</v>
-      </c>
-      <c r="B416" s="57" t="s">
-        <v>373</v>
+        <v>375</v>
+      </c>
+      <c r="B416" s="55" t="s">
+        <v>376</v>
       </c>
       <c r="C416" s="19"/>
       <c r="D416" s="41" t="s">
@@ -8294,10 +8361,10 @@
         <v>26</v>
       </c>
       <c r="F416" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G416" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H416" s="41"/>
     </row>
@@ -8308,10 +8375,10 @@
       <c r="D417" s="25"/>
       <c r="E417" s="25"/>
       <c r="F417" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G417" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H417" s="25"/>
     </row>
@@ -8321,11 +8388,11 @@
       <c r="C418" s="25"/>
       <c r="D418" s="25"/>
       <c r="E418" s="25"/>
-      <c r="F418" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G418" s="59" t="s">
-        <v>313</v>
+      <c r="F418" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G418" s="57" t="s">
+        <v>316</v>
       </c>
       <c r="H418" s="25"/>
     </row>
@@ -8335,11 +8402,11 @@
       <c r="C419" s="25"/>
       <c r="D419" s="25"/>
       <c r="E419" s="25"/>
-      <c r="F419" s="64" t="s">
-        <v>346</v>
+      <c r="F419" s="62" t="s">
+        <v>349</v>
       </c>
       <c r="G419" s="29" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H419" s="25"/>
     </row>
@@ -8350,10 +8417,10 @@
       <c r="D420" s="25"/>
       <c r="E420" s="25"/>
       <c r="F420" s="29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G420" s="29" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H420" s="25"/>
     </row>
@@ -8364,10 +8431,10 @@
       <c r="D421" s="25"/>
       <c r="E421" s="25"/>
       <c r="F421" s="29" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G421" s="29" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H421" s="25"/>
     </row>
@@ -8377,11 +8444,11 @@
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
       <c r="E422" s="25"/>
-      <c r="F422" s="59" t="s">
-        <v>374</v>
-      </c>
-      <c r="G422" s="59" t="s">
-        <v>375</v>
+      <c r="F422" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="G422" s="57" t="s">
+        <v>378</v>
       </c>
       <c r="H422" s="25"/>
     </row>
@@ -8391,11 +8458,11 @@
       <c r="C423" s="25"/>
       <c r="D423" s="25"/>
       <c r="E423" s="25"/>
-      <c r="F423" s="62" t="s">
-        <v>376</v>
-      </c>
-      <c r="G423" s="62" t="s">
-        <v>377</v>
+      <c r="F423" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="G423" s="60" t="s">
+        <v>380</v>
       </c>
       <c r="H423" s="25"/>
     </row>
@@ -8405,11 +8472,11 @@
       <c r="C424" s="25"/>
       <c r="D424" s="25"/>
       <c r="E424" s="25"/>
-      <c r="F424" s="62" t="s">
-        <v>378</v>
-      </c>
-      <c r="G424" s="62" t="s">
-        <v>379</v>
+      <c r="F424" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="G424" s="60" t="s">
+        <v>382</v>
       </c>
       <c r="H424" s="25"/>
     </row>
@@ -8419,11 +8486,11 @@
       <c r="C425" s="25"/>
       <c r="D425" s="25"/>
       <c r="E425" s="25"/>
-      <c r="F425" s="62" t="s">
-        <v>380</v>
-      </c>
-      <c r="G425" s="62" t="s">
-        <v>381</v>
+      <c r="F425" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="G425" s="60" t="s">
+        <v>384</v>
       </c>
       <c r="H425" s="25"/>
     </row>
@@ -8433,20 +8500,20 @@
       <c r="C426" s="30"/>
       <c r="D426" s="30"/>
       <c r="E426" s="30"/>
-      <c r="F426" s="59" t="s">
-        <v>382</v>
-      </c>
-      <c r="G426" s="59" t="s">
-        <v>383</v>
+      <c r="F426" s="57" t="s">
+        <v>385</v>
+      </c>
+      <c r="G426" s="57" t="s">
+        <v>386</v>
       </c>
       <c r="H426" s="30"/>
     </row>
     <row r="427">
       <c r="A427" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="B427" s="57" t="s">
-        <v>385</v>
+        <v>387</v>
+      </c>
+      <c r="B427" s="55" t="s">
+        <v>388</v>
       </c>
       <c r="C427" s="19"/>
       <c r="D427" s="41" t="s">
@@ -8456,12 +8523,14 @@
         <v>26</v>
       </c>
       <c r="F427" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G427" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H427" s="41"/>
+        <v>124</v>
+      </c>
+      <c r="H427" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="25"/>
@@ -8470,10 +8539,10 @@
       <c r="D428" s="25"/>
       <c r="E428" s="25"/>
       <c r="F428" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G428" s="29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H428" s="25"/>
     </row>
@@ -8483,11 +8552,11 @@
       <c r="C429" s="25"/>
       <c r="D429" s="25"/>
       <c r="E429" s="25"/>
-      <c r="F429" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G429" s="59" t="s">
-        <v>313</v>
+      <c r="F429" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G429" s="57" t="s">
+        <v>316</v>
       </c>
       <c r="H429" s="25"/>
     </row>
@@ -8497,11 +8566,11 @@
       <c r="C430" s="25"/>
       <c r="D430" s="25"/>
       <c r="E430" s="25"/>
-      <c r="F430" s="64" t="s">
-        <v>346</v>
+      <c r="F430" s="62" t="s">
+        <v>349</v>
       </c>
       <c r="G430" s="29" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H430" s="25"/>
     </row>
@@ -8512,10 +8581,10 @@
       <c r="D431" s="25"/>
       <c r="E431" s="25"/>
       <c r="F431" s="29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G431" s="29" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H431" s="25"/>
     </row>
@@ -8526,10 +8595,10 @@
       <c r="D432" s="25"/>
       <c r="E432" s="25"/>
       <c r="F432" s="29" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G432" s="29" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H432" s="25"/>
     </row>
@@ -8539,11 +8608,11 @@
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
       <c r="E433" s="25"/>
-      <c r="F433" s="59" t="s">
-        <v>374</v>
-      </c>
-      <c r="G433" s="59" t="s">
-        <v>375</v>
+      <c r="F433" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="G433" s="57" t="s">
+        <v>378</v>
       </c>
       <c r="H433" s="25"/>
     </row>
@@ -8553,11 +8622,11 @@
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
       <c r="E434" s="25"/>
-      <c r="F434" s="62" t="s">
-        <v>376</v>
-      </c>
-      <c r="G434" s="62" t="s">
-        <v>377</v>
+      <c r="F434" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="G434" s="60" t="s">
+        <v>380</v>
       </c>
       <c r="H434" s="25"/>
     </row>
@@ -8567,11 +8636,11 @@
       <c r="C435" s="25"/>
       <c r="D435" s="25"/>
       <c r="E435" s="25"/>
-      <c r="F435" s="62" t="s">
-        <v>386</v>
-      </c>
-      <c r="G435" s="62" t="s">
-        <v>387</v>
+      <c r="F435" s="60" t="s">
+        <v>389</v>
+      </c>
+      <c r="G435" s="60" t="s">
+        <v>390</v>
       </c>
       <c r="H435" s="25"/>
     </row>
@@ -8581,16 +8650,16 @@
       <c r="C436" s="30"/>
       <c r="D436" s="30"/>
       <c r="E436" s="30"/>
-      <c r="F436" s="59" t="s">
-        <v>388</v>
-      </c>
-      <c r="G436" s="59" t="s">
-        <v>389</v>
+      <c r="F436" s="57" t="s">
+        <v>391</v>
+      </c>
+      <c r="G436" s="57" t="s">
+        <v>392</v>
       </c>
       <c r="H436" s="30"/>
     </row>
     <row r="437">
-      <c r="A437" s="54"/>
+      <c r="A437" s="52"/>
       <c r="B437" s="35"/>
       <c r="C437" s="35"/>
       <c r="D437" s="35"/>
@@ -8600,8 +8669,8 @@
       <c r="H437" s="33"/>
     </row>
     <row r="438">
-      <c r="A438" s="55" t="s">
-        <v>390</v>
+      <c r="A438" s="53" t="s">
+        <v>393</v>
       </c>
       <c r="B438" s="37"/>
       <c r="C438" s="37"/>
@@ -8612,7 +8681,7 @@
       <c r="H438" s="38"/>
     </row>
     <row r="439">
-      <c r="A439" s="54"/>
+      <c r="A439" s="52"/>
       <c r="B439" s="35"/>
       <c r="C439" s="35"/>
       <c r="D439" s="35"/>
@@ -8622,33 +8691,35 @@
       <c r="H439" s="33"/>
     </row>
     <row r="440">
-      <c r="A440" s="58" t="s">
-        <v>391</v>
-      </c>
-      <c r="B440" s="59" t="s">
-        <v>392</v>
+      <c r="A440" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="B440" s="57" t="s">
+        <v>395</v>
       </c>
       <c r="C440" s="29"/>
-      <c r="D440" s="60" t="s">
+      <c r="D440" s="58" t="s">
         <v>10</v>
       </c>
       <c r="E440" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F440" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="G440" s="59" t="s">
-        <v>394</v>
-      </c>
-      <c r="H440" s="60"/>
+        <v>396</v>
+      </c>
+      <c r="G440" s="57" t="s">
+        <v>397</v>
+      </c>
+      <c r="H440" s="58" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="B441" s="57" t="s">
-        <v>396</v>
+        <v>398</v>
+      </c>
+      <c r="B441" s="55" t="s">
+        <v>399</v>
       </c>
       <c r="C441" s="19"/>
       <c r="D441" s="41" t="s">
@@ -8658,12 +8729,14 @@
         <v>26</v>
       </c>
       <c r="F441" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="G441" s="59" t="s">
-        <v>394</v>
-      </c>
-      <c r="H441" s="41"/>
+        <v>396</v>
+      </c>
+      <c r="G441" s="57" t="s">
+        <v>397</v>
+      </c>
+      <c r="H441" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="25"/>
@@ -8671,11 +8744,11 @@
       <c r="C442" s="25"/>
       <c r="D442" s="25"/>
       <c r="E442" s="25"/>
-      <c r="F442" s="59" t="s">
-        <v>397</v>
-      </c>
-      <c r="G442" s="59" t="s">
-        <v>398</v>
+      <c r="F442" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="G442" s="57" t="s">
+        <v>401</v>
       </c>
       <c r="H442" s="25"/>
     </row>
@@ -8685,16 +8758,16 @@
       <c r="C443" s="30"/>
       <c r="D443" s="30"/>
       <c r="E443" s="30"/>
-      <c r="F443" s="62" t="s">
-        <v>399</v>
-      </c>
-      <c r="G443" s="59" t="s">
-        <v>400</v>
+      <c r="F443" s="60" t="s">
+        <v>402</v>
+      </c>
+      <c r="G443" s="57" t="s">
+        <v>403</v>
       </c>
       <c r="H443" s="30"/>
     </row>
     <row r="444">
-      <c r="A444" s="54"/>
+      <c r="A444" s="52"/>
       <c r="B444" s="35"/>
       <c r="C444" s="35"/>
       <c r="D444" s="35"/>
@@ -8704,8 +8777,8 @@
       <c r="H444" s="33"/>
     </row>
     <row r="445">
-      <c r="A445" s="55" t="s">
-        <v>401</v>
+      <c r="A445" s="53" t="s">
+        <v>404</v>
       </c>
       <c r="B445" s="37"/>
       <c r="C445" s="37"/>
@@ -8716,7 +8789,7 @@
       <c r="H445" s="38"/>
     </row>
     <row r="446">
-      <c r="A446" s="54"/>
+      <c r="A446" s="52"/>
       <c r="B446" s="35"/>
       <c r="C446" s="35"/>
       <c r="D446" s="35"/>
@@ -8727,10 +8800,10 @@
     </row>
     <row r="447">
       <c r="A447" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="B447" s="57" t="s">
-        <v>403</v>
+        <v>405</v>
+      </c>
+      <c r="B447" s="55" t="s">
+        <v>406</v>
       </c>
       <c r="C447" s="19"/>
       <c r="D447" s="41" t="s">
@@ -8740,13 +8813,13 @@
         <v>26</v>
       </c>
       <c r="F447" s="29" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G447" s="29" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H447" s="41" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="448">
@@ -8755,11 +8828,11 @@
       <c r="C448" s="25"/>
       <c r="D448" s="25"/>
       <c r="E448" s="25"/>
-      <c r="F448" s="59" t="s">
-        <v>407</v>
-      </c>
-      <c r="G448" s="59" t="s">
-        <v>408</v>
+      <c r="F448" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="G448" s="57" t="s">
+        <v>411</v>
       </c>
       <c r="H448" s="25"/>
     </row>
@@ -8769,20 +8842,20 @@
       <c r="C449" s="30"/>
       <c r="D449" s="30"/>
       <c r="E449" s="30"/>
-      <c r="F449" s="59" t="s">
-        <v>409</v>
-      </c>
-      <c r="G449" s="59" t="s">
-        <v>410</v>
+      <c r="F449" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="G449" s="57" t="s">
+        <v>413</v>
       </c>
       <c r="H449" s="30"/>
     </row>
     <row r="450">
       <c r="A450" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="B450" s="57" t="s">
-        <v>412</v>
+        <v>414</v>
+      </c>
+      <c r="B450" s="55" t="s">
+        <v>415</v>
       </c>
       <c r="C450" s="19"/>
       <c r="D450" s="41" t="s">
@@ -8792,13 +8865,13 @@
         <v>26</v>
       </c>
       <c r="F450" s="29" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G450" s="29" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H450" s="41" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="451">
@@ -8807,11 +8880,11 @@
       <c r="C451" s="25"/>
       <c r="D451" s="25"/>
       <c r="E451" s="25"/>
-      <c r="F451" s="59" t="s">
-        <v>407</v>
-      </c>
-      <c r="G451" s="59" t="s">
-        <v>408</v>
+      <c r="F451" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="G451" s="57" t="s">
+        <v>411</v>
       </c>
       <c r="H451" s="25"/>
     </row>
@@ -8821,26 +8894,24 @@
       <c r="C452" s="30"/>
       <c r="D452" s="30"/>
       <c r="E452" s="30"/>
-      <c r="F452" s="59" t="s">
-        <v>414</v>
-      </c>
-      <c r="G452" s="59" t="s">
-        <v>410</v>
+      <c r="F452" s="57" t="s">
+        <v>417</v>
+      </c>
+      <c r="G452" s="57" t="s">
+        <v>413</v>
       </c>
       <c r="H452" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
-    <mergeCell ref="H298:H303"/>
-    <mergeCell ref="H334:H342"/>
+  <mergeCells count="498">
     <mergeCell ref="B128:B131"/>
     <mergeCell ref="C128:C131"/>
     <mergeCell ref="B132:B135"/>
     <mergeCell ref="C132:C135"/>
     <mergeCell ref="D132:D135"/>
     <mergeCell ref="E132:E135"/>
+    <mergeCell ref="H128:H131"/>
     <mergeCell ref="H132:H135"/>
-    <mergeCell ref="H128:H131"/>
     <mergeCell ref="A132:A135"/>
     <mergeCell ref="A136:A140"/>
     <mergeCell ref="B136:B140"/>
@@ -8848,25 +8919,25 @@
     <mergeCell ref="D136:D140"/>
     <mergeCell ref="E136:E140"/>
     <mergeCell ref="H136:H140"/>
+    <mergeCell ref="A101:H101"/>
+    <mergeCell ref="A102:H102"/>
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="D103:D104"/>
     <mergeCell ref="E103:E104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A101:H101"/>
     <mergeCell ref="D109:D111"/>
     <mergeCell ref="E109:E111"/>
     <mergeCell ref="D112:D113"/>
     <mergeCell ref="E112:E113"/>
     <mergeCell ref="H112:H113"/>
-    <mergeCell ref="H109:H111"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="A108:H108"/>
     <mergeCell ref="B109:B111"/>
     <mergeCell ref="C109:C111"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="A108:H108"/>
-    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="H109:H111"/>
     <mergeCell ref="D115:D119"/>
     <mergeCell ref="E115:E119"/>
     <mergeCell ref="H115:H119"/>
@@ -8884,9 +8955,6 @@
     <mergeCell ref="A115:A119"/>
     <mergeCell ref="B115:B119"/>
     <mergeCell ref="C115:C119"/>
-    <mergeCell ref="H150:H152"/>
-    <mergeCell ref="H146:H149"/>
-    <mergeCell ref="H141:H145"/>
     <mergeCell ref="B146:B149"/>
     <mergeCell ref="C146:C149"/>
     <mergeCell ref="A150:A152"/>
@@ -8894,6 +8962,244 @@
     <mergeCell ref="C150:C152"/>
     <mergeCell ref="D150:D152"/>
     <mergeCell ref="E150:E152"/>
+    <mergeCell ref="H141:H145"/>
+    <mergeCell ref="A177:A184"/>
+    <mergeCell ref="A185:A189"/>
+    <mergeCell ref="B185:B189"/>
+    <mergeCell ref="C185:C189"/>
+    <mergeCell ref="D185:D189"/>
+    <mergeCell ref="E185:E189"/>
+    <mergeCell ref="A190:A194"/>
+    <mergeCell ref="H185:H189"/>
+    <mergeCell ref="H190:H194"/>
+    <mergeCell ref="B172:B176"/>
+    <mergeCell ref="C172:C176"/>
+    <mergeCell ref="B177:B184"/>
+    <mergeCell ref="C177:C184"/>
+    <mergeCell ref="D177:D184"/>
+    <mergeCell ref="E177:E184"/>
+    <mergeCell ref="H177:H184"/>
+    <mergeCell ref="H150:H152"/>
+    <mergeCell ref="A154:H154"/>
+    <mergeCell ref="A155:H155"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="H157:H159"/>
+    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="E157:E159"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="C160:C163"/>
+    <mergeCell ref="D160:D163"/>
+    <mergeCell ref="E160:E163"/>
+    <mergeCell ref="H160:H163"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="E164:E167"/>
+    <mergeCell ref="H164:H167"/>
+    <mergeCell ref="D172:D176"/>
+    <mergeCell ref="E172:E176"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="C168:C171"/>
+    <mergeCell ref="D168:D171"/>
+    <mergeCell ref="E168:E171"/>
+    <mergeCell ref="H168:H171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="H172:H176"/>
+    <mergeCell ref="D190:D194"/>
+    <mergeCell ref="E190:E194"/>
+    <mergeCell ref="D195:D199"/>
+    <mergeCell ref="E195:E199"/>
+    <mergeCell ref="H195:H199"/>
+    <mergeCell ref="C200:C205"/>
+    <mergeCell ref="D200:D205"/>
+    <mergeCell ref="E200:E205"/>
+    <mergeCell ref="H200:H205"/>
+    <mergeCell ref="D243:D246"/>
+    <mergeCell ref="E243:E246"/>
+    <mergeCell ref="A238:A242"/>
+    <mergeCell ref="B238:B242"/>
+    <mergeCell ref="C238:C242"/>
+    <mergeCell ref="D238:D242"/>
+    <mergeCell ref="E238:E242"/>
+    <mergeCell ref="H238:H242"/>
+    <mergeCell ref="A243:A246"/>
+    <mergeCell ref="H243:H246"/>
+    <mergeCell ref="B243:B246"/>
+    <mergeCell ref="C243:C246"/>
+    <mergeCell ref="B247:B253"/>
+    <mergeCell ref="C247:C253"/>
+    <mergeCell ref="D247:D253"/>
+    <mergeCell ref="E247:E253"/>
+    <mergeCell ref="H247:H253"/>
+    <mergeCell ref="A247:A253"/>
+    <mergeCell ref="A254:A260"/>
+    <mergeCell ref="B254:B260"/>
+    <mergeCell ref="C254:C260"/>
+    <mergeCell ref="D254:D260"/>
+    <mergeCell ref="E254:E260"/>
+    <mergeCell ref="H254:H260"/>
+    <mergeCell ref="D268:D273"/>
+    <mergeCell ref="E268:E273"/>
+    <mergeCell ref="D274:D279"/>
+    <mergeCell ref="E274:E279"/>
+    <mergeCell ref="H274:H279"/>
+    <mergeCell ref="A261:A267"/>
+    <mergeCell ref="B261:B267"/>
+    <mergeCell ref="C261:C267"/>
+    <mergeCell ref="D261:D267"/>
+    <mergeCell ref="E261:E267"/>
+    <mergeCell ref="H261:H267"/>
+    <mergeCell ref="A268:A273"/>
+    <mergeCell ref="H268:H273"/>
+    <mergeCell ref="H304:H306"/>
+    <mergeCell ref="H307:H315"/>
+    <mergeCell ref="H316:H324"/>
+    <mergeCell ref="H325:H333"/>
+    <mergeCell ref="H334:H342"/>
+    <mergeCell ref="H343:H351"/>
+    <mergeCell ref="H352:H360"/>
+    <mergeCell ref="H361:H369"/>
+    <mergeCell ref="C280:C285"/>
+    <mergeCell ref="D280:D285"/>
+    <mergeCell ref="E280:E285"/>
+    <mergeCell ref="H280:H285"/>
+    <mergeCell ref="H286:H291"/>
+    <mergeCell ref="H292:H297"/>
+    <mergeCell ref="H298:H303"/>
+    <mergeCell ref="C325:C333"/>
+    <mergeCell ref="D325:D333"/>
+    <mergeCell ref="A316:A324"/>
+    <mergeCell ref="B316:B324"/>
+    <mergeCell ref="C316:C324"/>
+    <mergeCell ref="D316:D324"/>
+    <mergeCell ref="E316:E324"/>
+    <mergeCell ref="B325:B333"/>
+    <mergeCell ref="E325:E333"/>
+    <mergeCell ref="D343:D351"/>
+    <mergeCell ref="E343:E351"/>
+    <mergeCell ref="A325:A333"/>
+    <mergeCell ref="A334:A342"/>
+    <mergeCell ref="B334:B342"/>
+    <mergeCell ref="C334:C342"/>
+    <mergeCell ref="D334:D342"/>
+    <mergeCell ref="E334:E342"/>
+    <mergeCell ref="A343:A351"/>
+    <mergeCell ref="B268:B273"/>
+    <mergeCell ref="C268:C273"/>
+    <mergeCell ref="A274:A279"/>
+    <mergeCell ref="B274:B279"/>
+    <mergeCell ref="C274:C279"/>
+    <mergeCell ref="A280:A285"/>
+    <mergeCell ref="B280:B285"/>
+    <mergeCell ref="C292:C297"/>
+    <mergeCell ref="D292:D297"/>
+    <mergeCell ref="A286:A291"/>
+    <mergeCell ref="B286:B291"/>
+    <mergeCell ref="C286:C291"/>
+    <mergeCell ref="D286:D291"/>
+    <mergeCell ref="E286:E291"/>
+    <mergeCell ref="B292:B297"/>
+    <mergeCell ref="E292:E297"/>
+    <mergeCell ref="D304:D306"/>
+    <mergeCell ref="E304:E306"/>
+    <mergeCell ref="A292:A297"/>
+    <mergeCell ref="A298:A303"/>
+    <mergeCell ref="B298:B303"/>
+    <mergeCell ref="C298:C303"/>
+    <mergeCell ref="D298:D303"/>
+    <mergeCell ref="E298:E303"/>
+    <mergeCell ref="A304:A306"/>
+    <mergeCell ref="B304:B306"/>
+    <mergeCell ref="C304:C306"/>
+    <mergeCell ref="A307:A315"/>
+    <mergeCell ref="B307:B315"/>
+    <mergeCell ref="C307:C315"/>
+    <mergeCell ref="D307:D315"/>
+    <mergeCell ref="E307:E315"/>
+    <mergeCell ref="B343:B351"/>
+    <mergeCell ref="C343:C351"/>
+    <mergeCell ref="A352:A360"/>
+    <mergeCell ref="B352:B360"/>
+    <mergeCell ref="C352:C360"/>
+    <mergeCell ref="D352:D360"/>
+    <mergeCell ref="E352:E360"/>
+    <mergeCell ref="B416:B426"/>
+    <mergeCell ref="C416:C426"/>
+    <mergeCell ref="A427:A436"/>
+    <mergeCell ref="B427:B436"/>
+    <mergeCell ref="C427:C436"/>
+    <mergeCell ref="A441:A443"/>
+    <mergeCell ref="B441:B443"/>
+    <mergeCell ref="E427:E436"/>
+    <mergeCell ref="E441:E443"/>
+    <mergeCell ref="D416:D426"/>
+    <mergeCell ref="E416:E426"/>
+    <mergeCell ref="D427:D436"/>
+    <mergeCell ref="H427:H436"/>
+    <mergeCell ref="A437:H437"/>
+    <mergeCell ref="A438:H438"/>
+    <mergeCell ref="A439:H439"/>
+    <mergeCell ref="H441:H443"/>
+    <mergeCell ref="E447:E449"/>
+    <mergeCell ref="H447:H449"/>
+    <mergeCell ref="C441:C443"/>
+    <mergeCell ref="D441:D443"/>
+    <mergeCell ref="A444:H444"/>
+    <mergeCell ref="A445:H445"/>
+    <mergeCell ref="A446:H446"/>
+    <mergeCell ref="A447:A449"/>
+    <mergeCell ref="B447:B449"/>
+    <mergeCell ref="C370:C379"/>
+    <mergeCell ref="D370:D379"/>
+    <mergeCell ref="H370:H379"/>
+    <mergeCell ref="H380:H388"/>
+    <mergeCell ref="A361:A369"/>
+    <mergeCell ref="B361:B369"/>
+    <mergeCell ref="C361:C369"/>
+    <mergeCell ref="D361:D369"/>
+    <mergeCell ref="E361:E369"/>
+    <mergeCell ref="B370:B379"/>
+    <mergeCell ref="E370:E379"/>
+    <mergeCell ref="D389:D397"/>
+    <mergeCell ref="E389:E397"/>
+    <mergeCell ref="H389:H397"/>
+    <mergeCell ref="H398:H406"/>
+    <mergeCell ref="A370:A379"/>
+    <mergeCell ref="A380:A388"/>
+    <mergeCell ref="B380:B388"/>
+    <mergeCell ref="C380:C388"/>
+    <mergeCell ref="D380:D388"/>
+    <mergeCell ref="E380:E388"/>
+    <mergeCell ref="A389:A397"/>
+    <mergeCell ref="B389:B397"/>
+    <mergeCell ref="C389:C397"/>
+    <mergeCell ref="A398:A406"/>
+    <mergeCell ref="B398:B406"/>
+    <mergeCell ref="C398:C406"/>
+    <mergeCell ref="D398:D406"/>
+    <mergeCell ref="E398:E406"/>
+    <mergeCell ref="A407:A415"/>
+    <mergeCell ref="B407:B415"/>
+    <mergeCell ref="C407:C415"/>
+    <mergeCell ref="D407:D415"/>
+    <mergeCell ref="E407:E415"/>
+    <mergeCell ref="H407:H415"/>
+    <mergeCell ref="A416:A426"/>
+    <mergeCell ref="H416:H426"/>
+    <mergeCell ref="C447:C449"/>
+    <mergeCell ref="D447:D449"/>
+    <mergeCell ref="A450:A452"/>
+    <mergeCell ref="B450:B452"/>
+    <mergeCell ref="C450:C452"/>
+    <mergeCell ref="D450:D452"/>
+    <mergeCell ref="E450:E452"/>
+    <mergeCell ref="H450:H452"/>
     <mergeCell ref="F9:F13"/>
     <mergeCell ref="G9:G13"/>
     <mergeCell ref="A3:H4"/>
@@ -8922,22 +9228,23 @@
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="E23:E26"/>
+    <mergeCell ref="H23:H26"/>
     <mergeCell ref="A27:A30"/>
-    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="H71:H74"/>
     <mergeCell ref="H75:H78"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="H51:H54"/>
     <mergeCell ref="C35:C38"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="E35:E38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="H43:H46"/>
     <mergeCell ref="H47:H50"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="H35:H38"/>
     <mergeCell ref="D67:D70"/>
     <mergeCell ref="E67:E70"/>
     <mergeCell ref="A59:A62"/>
@@ -9012,15 +9319,15 @@
     <mergeCell ref="C87:C90"/>
     <mergeCell ref="D87:D90"/>
     <mergeCell ref="E87:E90"/>
+    <mergeCell ref="H87:H90"/>
     <mergeCell ref="A91:H91"/>
-    <mergeCell ref="H87:H90"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="A93:H93"/>
     <mergeCell ref="B94:B95"/>
     <mergeCell ref="C94:C95"/>
     <mergeCell ref="D94:D95"/>
     <mergeCell ref="E94:E95"/>
     <mergeCell ref="H94:H95"/>
-    <mergeCell ref="A93:H93"/>
-    <mergeCell ref="A92:H92"/>
     <mergeCell ref="A94:A95"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="B96:B97"/>
@@ -9033,8 +9340,8 @@
     <mergeCell ref="C98:C99"/>
     <mergeCell ref="D98:D99"/>
     <mergeCell ref="E98:E99"/>
+    <mergeCell ref="H98:H99"/>
     <mergeCell ref="A100:H100"/>
-    <mergeCell ref="H98:H99"/>
     <mergeCell ref="D128:D131"/>
     <mergeCell ref="E128:E131"/>
     <mergeCell ref="A124:A127"/>
@@ -9051,13 +9358,13 @@
     <mergeCell ref="D141:D145"/>
     <mergeCell ref="E141:E145"/>
     <mergeCell ref="A146:A149"/>
-    <mergeCell ref="D190:D194"/>
-    <mergeCell ref="E190:E194"/>
-    <mergeCell ref="D195:D199"/>
-    <mergeCell ref="E195:E199"/>
-    <mergeCell ref="H195:H199"/>
-    <mergeCell ref="E200:E205"/>
-    <mergeCell ref="D200:D205"/>
+    <mergeCell ref="H146:H149"/>
+    <mergeCell ref="A206:A210"/>
+    <mergeCell ref="B206:B210"/>
+    <mergeCell ref="C206:C210"/>
+    <mergeCell ref="D206:D210"/>
+    <mergeCell ref="E206:E210"/>
+    <mergeCell ref="H206:H210"/>
     <mergeCell ref="B190:B194"/>
     <mergeCell ref="C190:C194"/>
     <mergeCell ref="A195:A199"/>
@@ -9065,269 +9372,36 @@
     <mergeCell ref="C195:C199"/>
     <mergeCell ref="A200:A205"/>
     <mergeCell ref="B200:B205"/>
-    <mergeCell ref="A177:A184"/>
-    <mergeCell ref="A185:A189"/>
-    <mergeCell ref="B185:B189"/>
-    <mergeCell ref="C185:C189"/>
-    <mergeCell ref="D185:D189"/>
-    <mergeCell ref="E185:E189"/>
-    <mergeCell ref="A190:A194"/>
-    <mergeCell ref="H185:H189"/>
-    <mergeCell ref="H190:H194"/>
-    <mergeCell ref="B172:B176"/>
-    <mergeCell ref="C172:C176"/>
-    <mergeCell ref="B177:B184"/>
-    <mergeCell ref="C177:C184"/>
-    <mergeCell ref="D177:D184"/>
-    <mergeCell ref="E177:E184"/>
-    <mergeCell ref="H177:H184"/>
-    <mergeCell ref="A154:H154"/>
-    <mergeCell ref="A155:H155"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="H157:H159"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="E157:E159"/>
-    <mergeCell ref="B160:B163"/>
-    <mergeCell ref="C160:C163"/>
-    <mergeCell ref="D160:D163"/>
-    <mergeCell ref="E160:E163"/>
-    <mergeCell ref="H160:H163"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="E164:E167"/>
-    <mergeCell ref="H164:H167"/>
-    <mergeCell ref="D172:D176"/>
-    <mergeCell ref="E172:E176"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="C168:C171"/>
-    <mergeCell ref="D168:D171"/>
-    <mergeCell ref="E168:E171"/>
-    <mergeCell ref="H168:H171"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="H172:H176"/>
-    <mergeCell ref="H200:H205"/>
-    <mergeCell ref="H206:H210"/>
-    <mergeCell ref="H211:H215"/>
-    <mergeCell ref="H216:H220"/>
+    <mergeCell ref="D216:D220"/>
+    <mergeCell ref="E216:E220"/>
+    <mergeCell ref="D221:D225"/>
+    <mergeCell ref="E221:E225"/>
     <mergeCell ref="H221:H225"/>
-    <mergeCell ref="C226:C231"/>
-    <mergeCell ref="C232:C237"/>
-    <mergeCell ref="A232:A237"/>
-    <mergeCell ref="B232:B237"/>
-    <mergeCell ref="C247:C253"/>
-    <mergeCell ref="E247:E253"/>
-    <mergeCell ref="B226:B231"/>
-    <mergeCell ref="B238:B242"/>
-    <mergeCell ref="A238:A242"/>
-    <mergeCell ref="C200:C205"/>
-    <mergeCell ref="E206:E210"/>
-    <mergeCell ref="A206:A210"/>
-    <mergeCell ref="B206:B210"/>
-    <mergeCell ref="C206:C210"/>
-    <mergeCell ref="D206:D210"/>
     <mergeCell ref="A211:A215"/>
     <mergeCell ref="B211:B215"/>
     <mergeCell ref="C211:C215"/>
+    <mergeCell ref="D211:D215"/>
+    <mergeCell ref="E211:E215"/>
+    <mergeCell ref="H211:H215"/>
     <mergeCell ref="A216:A220"/>
+    <mergeCell ref="H216:H220"/>
+    <mergeCell ref="C226:C231"/>
+    <mergeCell ref="D226:D231"/>
+    <mergeCell ref="E226:E231"/>
+    <mergeCell ref="H226:H231"/>
+    <mergeCell ref="A232:A237"/>
+    <mergeCell ref="B232:B237"/>
+    <mergeCell ref="C232:C237"/>
+    <mergeCell ref="D232:D237"/>
+    <mergeCell ref="E232:E237"/>
+    <mergeCell ref="H232:H237"/>
     <mergeCell ref="B216:B220"/>
     <mergeCell ref="C216:C220"/>
+    <mergeCell ref="A221:A225"/>
     <mergeCell ref="B221:B225"/>
     <mergeCell ref="C221:C225"/>
-    <mergeCell ref="A221:A225"/>
     <mergeCell ref="A226:A231"/>
-    <mergeCell ref="D226:D231"/>
-    <mergeCell ref="D232:D237"/>
-    <mergeCell ref="D211:D215"/>
-    <mergeCell ref="E211:E215"/>
-    <mergeCell ref="E216:E220"/>
-    <mergeCell ref="D216:D220"/>
-    <mergeCell ref="D221:D225"/>
-    <mergeCell ref="E221:E225"/>
-    <mergeCell ref="E226:E231"/>
-    <mergeCell ref="E232:E237"/>
-    <mergeCell ref="E238:E242"/>
-    <mergeCell ref="C238:C242"/>
-    <mergeCell ref="D238:D242"/>
-    <mergeCell ref="E243:E246"/>
-    <mergeCell ref="C243:C246"/>
-    <mergeCell ref="D243:D246"/>
-    <mergeCell ref="A243:A246"/>
-    <mergeCell ref="B243:B246"/>
-    <mergeCell ref="A247:A253"/>
-    <mergeCell ref="B247:B253"/>
-    <mergeCell ref="B316:B324"/>
-    <mergeCell ref="B325:B333"/>
-    <mergeCell ref="H316:H324"/>
-    <mergeCell ref="H325:H333"/>
-    <mergeCell ref="H343:H351"/>
-    <mergeCell ref="H352:H360"/>
-    <mergeCell ref="H361:H369"/>
-    <mergeCell ref="H370:H379"/>
-    <mergeCell ref="H380:H388"/>
-    <mergeCell ref="H226:H231"/>
-    <mergeCell ref="H232:H237"/>
-    <mergeCell ref="H238:H242"/>
-    <mergeCell ref="H243:H246"/>
-    <mergeCell ref="H247:H253"/>
-    <mergeCell ref="H254:H260"/>
-    <mergeCell ref="H261:H267"/>
-    <mergeCell ref="E304:E306"/>
-    <mergeCell ref="E307:E315"/>
-    <mergeCell ref="E316:E324"/>
-    <mergeCell ref="C316:C324"/>
-    <mergeCell ref="D316:D324"/>
-    <mergeCell ref="A316:A324"/>
-    <mergeCell ref="E325:E333"/>
-    <mergeCell ref="A325:A333"/>
-    <mergeCell ref="B334:B342"/>
-    <mergeCell ref="B343:B351"/>
-    <mergeCell ref="A352:A360"/>
-    <mergeCell ref="B352:B360"/>
-    <mergeCell ref="A361:A369"/>
-    <mergeCell ref="B361:B369"/>
-    <mergeCell ref="C325:C333"/>
-    <mergeCell ref="D325:D333"/>
-    <mergeCell ref="E334:E342"/>
-    <mergeCell ref="C334:C342"/>
-    <mergeCell ref="D334:D342"/>
-    <mergeCell ref="A334:A342"/>
-    <mergeCell ref="E343:E351"/>
-    <mergeCell ref="A343:A351"/>
-    <mergeCell ref="C343:C351"/>
-    <mergeCell ref="D343:D351"/>
-    <mergeCell ref="E352:E360"/>
-    <mergeCell ref="C352:C360"/>
-    <mergeCell ref="D352:D360"/>
-    <mergeCell ref="C361:C369"/>
-    <mergeCell ref="D361:D369"/>
-    <mergeCell ref="E361:E369"/>
-    <mergeCell ref="E370:E379"/>
-    <mergeCell ref="C398:C406"/>
-    <mergeCell ref="D398:D406"/>
-    <mergeCell ref="H407:H415"/>
-    <mergeCell ref="E380:E388"/>
-    <mergeCell ref="E389:E397"/>
-    <mergeCell ref="H389:H397"/>
-    <mergeCell ref="H398:H406"/>
-    <mergeCell ref="E398:E406"/>
-    <mergeCell ref="E407:E415"/>
-    <mergeCell ref="H416:H426"/>
-    <mergeCell ref="A450:A452"/>
-    <mergeCell ref="B450:B452"/>
-    <mergeCell ref="C450:C452"/>
-    <mergeCell ref="A427:A436"/>
-    <mergeCell ref="B427:B436"/>
-    <mergeCell ref="C427:C436"/>
-    <mergeCell ref="A441:A443"/>
-    <mergeCell ref="B441:B443"/>
-    <mergeCell ref="C441:C443"/>
-    <mergeCell ref="A447:A449"/>
-    <mergeCell ref="B447:B449"/>
-    <mergeCell ref="C447:C449"/>
-    <mergeCell ref="A370:A379"/>
-    <mergeCell ref="B370:B379"/>
-    <mergeCell ref="C370:C379"/>
-    <mergeCell ref="D370:D379"/>
-    <mergeCell ref="B380:B388"/>
-    <mergeCell ref="C380:C388"/>
-    <mergeCell ref="D380:D388"/>
-    <mergeCell ref="A380:A388"/>
-    <mergeCell ref="A389:A397"/>
-    <mergeCell ref="B389:B397"/>
-    <mergeCell ref="C389:C397"/>
-    <mergeCell ref="D389:D397"/>
-    <mergeCell ref="A398:A406"/>
-    <mergeCell ref="B398:B406"/>
-    <mergeCell ref="A407:A415"/>
-    <mergeCell ref="B407:B415"/>
-    <mergeCell ref="C407:C415"/>
-    <mergeCell ref="D407:D415"/>
-    <mergeCell ref="A416:A426"/>
-    <mergeCell ref="B416:B426"/>
-    <mergeCell ref="C416:C426"/>
-    <mergeCell ref="D416:D426"/>
-    <mergeCell ref="D427:D436"/>
-    <mergeCell ref="D441:D443"/>
-    <mergeCell ref="D450:D452"/>
-    <mergeCell ref="D447:D449"/>
-    <mergeCell ref="D247:D253"/>
-    <mergeCell ref="D254:D260"/>
-    <mergeCell ref="D268:D273"/>
-    <mergeCell ref="D274:D279"/>
-    <mergeCell ref="E274:E279"/>
-    <mergeCell ref="D280:D285"/>
-    <mergeCell ref="E280:E285"/>
-    <mergeCell ref="D261:D267"/>
-    <mergeCell ref="E261:E267"/>
-    <mergeCell ref="A254:A260"/>
-    <mergeCell ref="B254:B260"/>
-    <mergeCell ref="C254:C260"/>
-    <mergeCell ref="E254:E260"/>
-    <mergeCell ref="A261:A267"/>
-    <mergeCell ref="B261:B267"/>
-    <mergeCell ref="C261:C267"/>
-    <mergeCell ref="C274:C279"/>
-    <mergeCell ref="C280:C285"/>
-    <mergeCell ref="A280:A285"/>
-    <mergeCell ref="A286:A291"/>
-    <mergeCell ref="B286:B291"/>
-    <mergeCell ref="D286:D291"/>
-    <mergeCell ref="C286:C291"/>
-    <mergeCell ref="E286:E291"/>
-    <mergeCell ref="E268:E273"/>
-    <mergeCell ref="A268:A273"/>
-    <mergeCell ref="B268:B273"/>
-    <mergeCell ref="C268:C273"/>
-    <mergeCell ref="A274:A279"/>
-    <mergeCell ref="B274:B279"/>
-    <mergeCell ref="B280:B285"/>
-    <mergeCell ref="H268:H273"/>
-    <mergeCell ref="H274:H279"/>
-    <mergeCell ref="H280:H285"/>
-    <mergeCell ref="H286:H291"/>
-    <mergeCell ref="H292:H297"/>
-    <mergeCell ref="A292:A297"/>
-    <mergeCell ref="B292:B297"/>
-    <mergeCell ref="E292:E297"/>
-    <mergeCell ref="D292:D297"/>
-    <mergeCell ref="C292:C297"/>
-    <mergeCell ref="A298:A303"/>
-    <mergeCell ref="B298:B303"/>
-    <mergeCell ref="D298:D303"/>
-    <mergeCell ref="C298:C303"/>
-    <mergeCell ref="E298:E303"/>
-    <mergeCell ref="B307:B315"/>
-    <mergeCell ref="A304:A306"/>
-    <mergeCell ref="A307:A315"/>
-    <mergeCell ref="H304:H306"/>
-    <mergeCell ref="B304:B306"/>
-    <mergeCell ref="C304:C306"/>
-    <mergeCell ref="D304:D306"/>
-    <mergeCell ref="C307:C315"/>
-    <mergeCell ref="D307:D315"/>
-    <mergeCell ref="H307:H315"/>
-    <mergeCell ref="H441:H443"/>
-    <mergeCell ref="A445:H445"/>
-    <mergeCell ref="A446:H446"/>
-    <mergeCell ref="A444:H444"/>
-    <mergeCell ref="E447:E449"/>
-    <mergeCell ref="H447:H449"/>
-    <mergeCell ref="E450:E452"/>
-    <mergeCell ref="H450:H452"/>
-    <mergeCell ref="E416:E426"/>
-    <mergeCell ref="E427:E436"/>
-    <mergeCell ref="H427:H436"/>
-    <mergeCell ref="A438:H438"/>
-    <mergeCell ref="A439:H439"/>
-    <mergeCell ref="A437:H437"/>
-    <mergeCell ref="E441:E443"/>
+    <mergeCell ref="B226:B231"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F5"/>
